--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="81">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -85,6 +85,24 @@
     <t xml:space="preserve">Adactrain@1</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – One</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
   </si>
   <si>
@@ -94,40 +112,25 @@
     <t xml:space="preserve">User_is_able_to_view_the_drop_down_list_in_locations</t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney, Melbourne, Brisbane, Adelaide, London, New York, Los Angeles, Paris</t>
+    <t xml:space="preserve">Sydney,Melbourne,Brisbane,Adelaide, London,New York,Los Angeles,Paris</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
   </si>
   <si>
-    <t xml:space="preserve">Hotel Creek, 
-Hotel Sunshine, 
-Hotel Hervey, 
-Hotel Cornice</t>
+    <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey, Hotel Cornice</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_options_in_the_Room_Type_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard,
-Deluxe,
-Double,
-Super Deluxe</t>
+    <t xml:space="preserve">Standard,Deluxe,Double,Super Deluxe</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_the_list_of_options_in_the_Number_of_Rooms_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">1 – One
-2 – Two
-3 – Three
-4 – Four
-5 – Five
-6 – Six
-7 – Seven
-8 – Eight
-9 – Nine
-10 - Ten</t>
+    <t xml:space="preserve">1 – One,2 – Two,3 – Three,4 – Four,5 – Five,6 – Six,7 – Seven,8 – Eight,9 – Nine,10 – Ten</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_enter_check_in_date_in_the_check_in_date_field</t>
@@ -151,13 +154,7 @@
     <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">iPhone_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – One
-2 – Two
-3 – Three
-4 – Four</t>
+    <t xml:space="preserve">1 – One,2 – Two,3 – Three,4 – Four</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_the_details_of_the_hotel_selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_screen</t>
@@ -275,9 +269,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -415,6 +410,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -423,11 +422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,7 +517,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.65"/>
@@ -611,8 +606,8 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -622,7 +617,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>13.3</v>
@@ -633,12 +628,34 @@
       <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -661,9 +678,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
+    <row r="5" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -683,13 +700,12 @@
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -709,14 +725,13 @@
       <c r="G6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -736,13 +751,14 @@
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="113.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>29</v>
+      <c r="H7" s="7"/>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -762,13 +778,13 @@
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>31</v>
+      <c r="J8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -788,13 +804,13 @@
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="11" t="n">
-        <v>43919</v>
+      <c r="K9" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
+      <c r="A10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
@@ -814,13 +830,13 @@
       <c r="G10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
+      <c r="A11" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
@@ -840,13 +856,13 @@
       <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+      <c r="A12" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -866,13 +882,13 @@
       <c r="G12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="12" t="n">
-        <v>43920</v>
+      <c r="L12" s="9" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -892,13 +908,13 @@
       <c r="G13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="9" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -918,13 +934,13 @@
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="9" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
@@ -933,7 +949,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
@@ -944,13 +960,13 @@
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="9" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -959,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
@@ -970,13 +986,13 @@
       <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -985,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
@@ -995,11 +1011,14 @@
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -1008,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
@@ -1022,7 +1041,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -1031,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
@@ -1045,7 +1064,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -1054,17 +1073,21 @@
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1073,15 +1096,17 @@
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
@@ -1090,21 +1115,15 @@
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>123344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
@@ -1113,15 +1132,21 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>123344</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
@@ -1130,24 +1155,15 @@
         <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
@@ -1156,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
@@ -1166,11 +1182,35 @@
       </c>
       <c r="G25" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="12" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>16</v>
@@ -1179,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
@@ -1193,7 +1233,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
@@ -1202,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
@@ -1216,7 +1256,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
@@ -1225,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
@@ -1239,7 +1279,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
@@ -1248,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
@@ -1262,7 +1302,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
@@ -1271,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
@@ -1285,7 +1325,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>16</v>
@@ -1294,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
@@ -1308,7 +1348,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>16</v>
@@ -1317,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
@@ -1329,9 +1369,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -1340,7 +1380,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
@@ -1352,9 +1392,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>16</v>
@@ -1363,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
@@ -1377,7 +1417,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
@@ -1386,7 +1426,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
@@ -1400,7 +1440,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
@@ -1409,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
@@ -1423,7 +1463,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -1432,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
@@ -1442,14 +1482,11 @@
       </c>
       <c r="G37" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
@@ -1458,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
@@ -1470,12 +1507,12 @@
         <v>20</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
@@ -1484,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
@@ -1495,13 +1532,13 @@
       <c r="G39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>68</v>
+      <c r="H39" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -1510,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
@@ -1520,11 +1557,14 @@
       </c>
       <c r="G40" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
@@ -1533,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
@@ -1543,14 +1583,11 @@
       </c>
       <c r="G41" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
@@ -1559,7 +1596,7 @@
         <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
@@ -1569,11 +1606,14 @@
       </c>
       <c r="G42" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
@@ -1582,7 +1622,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
@@ -1596,7 +1636,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
@@ -1605,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
@@ -1619,7 +1659,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
@@ -1628,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
@@ -1642,7 +1682,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -1651,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
@@ -1665,7 +1705,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
@@ -1674,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
@@ -1683,6 +1723,29 @@
         <v>19</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1706,7 +1769,7 @@
     <hyperlink ref="G17" r:id="rId16" display="Adactrain@1"/>
     <hyperlink ref="G18" r:id="rId17" display="Adactrain@1"/>
     <hyperlink ref="G19" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId19" display="Adactrain@1"/>
     <hyperlink ref="G25" r:id="rId20" display="Adactrain@1"/>
     <hyperlink ref="G26" r:id="rId21" display="Adactrain@1"/>
     <hyperlink ref="G27" r:id="rId22" display="Adactrain@1"/>
@@ -1730,6 +1793,7 @@
     <hyperlink ref="G45" r:id="rId40" display="Adactrain@1"/>
     <hyperlink ref="G46" r:id="rId41" display="Adactrain@1"/>
     <hyperlink ref="G47" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId43" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="82">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -100,7 +100,33 @@
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">1 – One</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
@@ -130,7 +156,177 @@
     <t xml:space="preserve">User_is_able_to_view_the_list_of_options_in_the_Number_of_Rooms_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">1 – One,2 – Two,3 – Three,4 – Four,5 – Five,6 – Six,7 – Seven,8 – Eight,9 – Nine,10 – Ten</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 - One,2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Two,3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Three,4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Four,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Five,6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Six,7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Seven,8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Eight,9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nine,10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ten</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_enter_check_in_date_in_the_check_in_date_field</t>
@@ -154,10 +350,83 @@
     <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">1 – One,2 – Two,3 – Three,4 – Four</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One,2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Two,3 - Three,4 - Four</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One,2 –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Two,3 - Three,4 - Four</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
@@ -269,12 +538,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,6 +588,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -422,8 +696,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -505,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,7 +880,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>21</v>
       </c>
@@ -782,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
@@ -804,7 +1078,7 @@
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -964,7 +1238,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -990,7 +1264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1013,12 +1287,12 @@
         <v>20</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -1041,7 +1315,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -1064,7 +1338,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -1087,7 +1361,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -1106,7 +1380,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
@@ -1123,7 +1397,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
@@ -1138,7 +1412,7 @@
         <v>13.3</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>123344</v>
@@ -1146,7 +1420,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>16</v>
@@ -1161,9 +1435,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
@@ -1195,7 +1469,7 @@
       <c r="K25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="12" t="n">
+      <c r="L25" s="9" t="n">
         <v>43919</v>
       </c>
       <c r="M25" s="9" t="n">
@@ -1210,7 +1484,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>16</v>
@@ -1233,7 +1507,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>16</v>
@@ -1256,7 +1530,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>16</v>
@@ -1279,7 +1553,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>16</v>
@@ -1302,7 +1576,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>16</v>
@@ -1325,7 +1599,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>16</v>
@@ -1348,7 +1622,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>16</v>
@@ -1371,7 +1645,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>16</v>
@@ -1394,7 +1668,7 @@
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>16</v>
@@ -1417,7 +1691,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
@@ -1440,7 +1714,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>16</v>
@@ -1463,7 +1737,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -1486,7 +1760,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
@@ -1507,12 +1781,12 @@
         <v>20</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
@@ -1533,12 +1807,12 @@
         <v>20</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -1559,12 +1833,12 @@
         <v>20</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
@@ -1587,7 +1861,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
@@ -1608,12 +1882,12 @@
         <v>20</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
@@ -1636,7 +1910,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
@@ -1659,7 +1933,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
@@ -1682,7 +1956,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -1705,7 +1979,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
@@ -1728,7 +2002,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>16</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="95">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -67,6 +67,27 @@
     <t xml:space="preserve">Children per Room</t>
   </si>
   <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC Expiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVV</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
   </si>
   <si>
@@ -91,6 +112,12 @@
     <t xml:space="preserve">iPhone_SE</t>
   </si>
   <si>
+    <t xml:space="preserve">testusersbin6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testpw123)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sydney</t>
   </si>
   <si>
@@ -127,6 +154,18 @@
       </rPr>
       <t xml:space="preserve"> One</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing address of test user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
@@ -538,9 +577,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="0000000000000000"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -647,7 +688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -689,11 +730,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -777,10 +826,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +850,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,69 +901,86 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>43919</v>
@@ -921,240 +989,258 @@
         <v>43920</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
+      <c r="A4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>28</v>
+      <c r="A5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
+      <c r="A6" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>31</v>
+      <c r="A7" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>33</v>
+      <c r="A8" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
+      <c r="A9" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>37</v>
+      <c r="A10" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L10" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>38</v>
+      <c r="A11" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L11" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>39</v>
+      <c r="A12" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>43919</v>
@@ -1162,25 +1248,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M13" s="9" t="n">
         <v>43920</v>
@@ -1188,25 +1274,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>43920</v>
@@ -1214,25 +1300,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M15" s="9" t="n">
         <v>43920</v>
@@ -1240,137 +1326,137 @@
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
@@ -1380,16 +1466,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
@@ -1397,22 +1483,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>123344</v>
@@ -1420,16 +1506,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
@@ -1437,37 +1523,37 @@
     </row>
     <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>43919</v>
@@ -1476,598 +1562,597 @@
         <v>43920</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G3" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G4" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G5" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G6" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G7" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G8" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G9" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G10" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G11" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G12" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G13" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId42" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId43" display="Adactrain@1"/>
+    <hyperlink ref="G4" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G5" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G6" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G7" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G8" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G9" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G10" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G11" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G12" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G13" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">iPhone_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">testusersbin6</t>
+    <t xml:space="preserve">testusersbin13</t>
   </si>
   <si>
     <t xml:space="preserve">testpw123)</t>
@@ -579,9 +579,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0000000000000000"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0000000000000000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -688,7 +688,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,7 +725,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,11 +737,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +842,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
@@ -964,7 +968,7 @@
       <c r="E3" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -982,10 +986,10 @@
       <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="10" t="n">
         <v>43919</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="10" t="n">
         <v>43920</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -1000,13 +1004,13 @@
       <c r="Q3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="V3" s="0" t="n">
@@ -1014,7 +1018,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1039,7 +1043,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1064,7 +1068,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1085,12 +1089,12 @@
       <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1117,7 +1121,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1138,12 +1142,12 @@
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1164,12 +1168,12 @@
       <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1190,12 +1194,12 @@
       <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1216,12 +1220,12 @@
       <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1242,7 +1246,7 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1268,7 +1272,7 @@
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1294,7 +1298,7 @@
       <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1320,7 +1324,7 @@
       <c r="G15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="M15" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1346,7 +1350,7 @@
       <c r="G16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1372,7 +1376,7 @@
       <c r="G17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1555,10 +1559,10 @@
       <c r="K25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="10" t="n">
         <v>43919</v>
       </c>
-      <c r="M25" s="9" t="n">
+      <c r="M25" s="10" t="n">
         <v>43920</v>
       </c>
       <c r="N25" s="4" t="s">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -88,6 +88,12 @@
     <t xml:space="preserve">CVV</t>
   </si>
   <si>
+    <t xml:space="preserve">Booked Itinerary id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
   </si>
   <si>
@@ -100,75 +106,78 @@
     <t xml:space="preserve">iPhone SE</t>
   </si>
   <si>
+    <t xml:space="preserve">testusersbin16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED337V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing address of test user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
+  </si>
+  <si>
     <t xml:space="preserve">adactmobtest</t>
   </si>
   <si>
     <t xml:space="preserve">Adactrain@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testusersbin13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testpw123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> One</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billing address of test user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
@@ -713,7 +722,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,10 +732,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -747,6 +752,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -830,10 +839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,7 +865,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,1237 +938,1270 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="9" t="n">
         <v>43919</v>
       </c>
-      <c r="M3" s="10" t="n">
+      <c r="M4" s="9" t="n">
         <v>43920</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="N4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="11" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="0" t="n">
+      <c r="T4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="0" t="n">
         <v>1223</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="W4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
+      <c r="F5" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>42</v>
+    <row r="6" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
+      <c r="F6" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
+      <c r="F7" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
+      <c r="F8" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="E11" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="E12" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="9" t="n">
         <v>43919</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="E13" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="9" t="n">
         <v>43919</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="10" t="n">
-        <v>43920</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
+      <c r="F14" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="M14" s="9" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>26</v>
+      <c r="F15" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="10" t="n">
+      <c r="E16" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="9" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
+      <c r="F17" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
+      <c r="F18" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
+      <c r="F19" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>26</v>
+      <c r="F20" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>123344</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>123344</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="4" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="10" t="n">
+      <c r="K26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="9" t="n">
         <v>43919</v>
       </c>
-      <c r="M25" s="10" t="n">
+      <c r="M26" s="9" t="n">
         <v>43920</v>
       </c>
-      <c r="N25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>27</v>
+      <c r="N26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>26</v>
+      <c r="F27" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>26</v>
+      <c r="F28" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>26</v>
+      <c r="F29" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>26</v>
+      <c r="F30" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>26</v>
+      <c r="F31" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>26</v>
+      <c r="F32" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>26</v>
+      <c r="F33" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>26</v>
+      <c r="F34" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>26</v>
+      <c r="F35" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>26</v>
+      <c r="F36" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>26</v>
+      <c r="F37" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>26</v>
+      <c r="F38" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>26</v>
+      <c r="F39" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>26</v>
+      <c r="F40" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>86</v>
+        <v>43</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>26</v>
+      <c r="F41" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>26</v>
+      <c r="F42" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>26</v>
+      <c r="F43" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>26</v>
+      <c r="F44" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>26</v>
+      <c r="F45" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>26</v>
+      <c r="F46" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>26</v>
+      <c r="F47" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>26</v>
+      <c r="F48" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G4" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G5" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G6" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G7" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G8" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G9" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G10" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G11" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G12" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G13" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G5" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G6" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G7" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G8" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G9" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G10" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G11" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G12" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G13" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId41" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="104">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -115,18 +115,64 @@
     <t xml:space="preserve">User_is_able_to_logout</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testusersbin20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testpw123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey, Hotel Cornice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testusersbin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Standard,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Double,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Deluxe,Super Deluxe</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
     <t xml:space="preserve">iPhone_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
@@ -190,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey, Hotel Cornice</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_options_in_the_Room_Type_drop_down_menu</t>
@@ -592,7 +635,7 @@
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="0000000000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -641,6 +684,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -734,12 +782,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -758,7 +806,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,10 +887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -995,7 +1043,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>31</v>
       </c>
@@ -1006,66 +1054,27 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>43919</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <v>43920</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1079,43 +1088,93 @@
       <c r="E5" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="L6" s="10" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -1130,18 +1189,17 @@
         <v>13.3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
@@ -1156,19 +1214,17 @@
         <v>13.3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
@@ -1183,18 +1239,18 @@
         <v>13.3</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
@@ -1209,18 +1265,19 @@
         <v>13.3</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>25</v>
@@ -1235,18 +1292,18 @@
         <v>13.3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -1261,18 +1318,18 @@
         <v>13.3</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="9" t="n">
-        <v>43919</v>
+        <v>50</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -1287,18 +1344,18 @@
         <v>13.3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
+      <c r="A14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>25</v>
@@ -1313,18 +1370,18 @@
         <v>13.3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="9" t="n">
-        <v>43920</v>
+        <v>50</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
+      <c r="A15" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>25</v>
@@ -1339,18 +1396,18 @@
         <v>13.3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="9" t="n">
-        <v>43920</v>
+        <v>50</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
@@ -1365,18 +1422,18 @@
         <v>13.3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
@@ -1385,24 +1442,24 @@
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="M17" s="10" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>25</v>
@@ -1411,24 +1468,24 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -1437,21 +1494,24 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
@@ -1460,21 +1520,24 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>25</v>
@@ -1483,21 +1546,21 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>25</v>
@@ -1506,17 +1569,21 @@
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
@@ -1525,15 +1592,21 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -1542,21 +1615,17 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>123344</v>
-      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1565,15 +1634,15 @@
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -1582,45 +1651,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="9" t="n">
-        <v>43919</v>
-      </c>
-      <c r="M26" s="9" t="n">
-        <v>43920</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>36</v>
+      <c r="F26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>123344</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
@@ -1629,44 +1674,62 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="14" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K28" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="10" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M28" s="10" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>25</v>
@@ -1675,21 +1738,21 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>25</v>
@@ -1698,21 +1761,21 @@
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>25</v>
@@ -1721,21 +1784,21 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>25</v>
@@ -1744,21 +1807,21 @@
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>25</v>
@@ -1767,21 +1830,21 @@
         <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>25</v>
@@ -1790,21 +1853,21 @@
         <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>25</v>
@@ -1813,21 +1876,21 @@
         <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>25</v>
@@ -1836,21 +1899,21 @@
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>25</v>
@@ -1859,21 +1922,21 @@
         <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>25</v>
@@ -1882,21 +1945,21 @@
         <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>25</v>
@@ -1905,24 +1968,21 @@
         <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>25</v>
@@ -1931,24 +1991,21 @@
         <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>25</v>
@@ -1957,24 +2014,24 @@
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>25</v>
@@ -1983,21 +2040,24 @@
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>25</v>
@@ -2006,24 +2066,24 @@
         <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>25</v>
@@ -2032,21 +2092,21 @@
         <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>25</v>
@@ -2055,21 +2115,24 @@
         <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>25</v>
@@ -2078,21 +2141,21 @@
         <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>25</v>
@@ -2101,21 +2164,21 @@
         <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>25</v>
@@ -2124,21 +2187,21 @@
         <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>25</v>
@@ -2147,61 +2210,107 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G6" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G7" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G8" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G9" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G10" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G11" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G12" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G13" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G7" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G8" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G9" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G10" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G11" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G12" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G13" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId41" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -204,22 +204,22 @@
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
+    <t xml:space="preserve">testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing address of test user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
+  </si>
+  <si>
     <t xml:space="preserve">iPhone_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billing address of test user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
   </si>
   <si>
     <t xml:space="preserve">adactmobtest</t>
@@ -912,14 +912,15 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
@@ -1214,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>13.3</v>
@@ -1261,19 +1262,19 @@
         <v>50</v>
       </c>
       <c r="P8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="R8" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="S8" s="11" t="n">
         <v>1234567891234570</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>1223</v>
@@ -1284,7 +1285,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -1293,7 +1294,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>13.3</v>
@@ -1674,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
@@ -1700,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
@@ -1726,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
@@ -1749,7 +1750,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
@@ -1772,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
@@ -1795,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
@@ -1814,7 +1815,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
@@ -1831,7 +1832,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
@@ -1854,7 +1855,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
@@ -1871,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
@@ -1918,7 +1919,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
@@ -1941,7 +1942,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
@@ -1964,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
@@ -1987,7 +1988,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
@@ -2010,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
@@ -2033,7 +2034,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
@@ -2056,7 +2057,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
@@ -2079,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
@@ -2102,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
@@ -2125,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
@@ -2148,7 +2149,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
@@ -2171,7 +2172,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
@@ -2194,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
@@ -2220,7 +2221,7 @@
         <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
@@ -2246,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
@@ -2272,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
@@ -2295,7 +2296,7 @@
         <v>30</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
@@ -2321,7 +2322,7 @@
         <v>30</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
@@ -2344,7 +2345,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
@@ -2367,7 +2368,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
@@ -2390,7 +2391,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
@@ -2413,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
@@ -2436,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -109,6 +109,21 @@
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
   </si>
   <si>
+    <t xml:space="preserve">android_device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnePlus 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shwetabinu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_not_able_to_login_for_invalid_credentials</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulator</t>
   </si>
   <si>
@@ -118,25 +133,22 @@
     <t xml:space="preserve">iPhone SE</t>
   </si>
   <si>
+    <t xml:space="preserve">ABC123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhjsdgfjsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Login Credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_logout</t>
+  </si>
+  <si>
     <t xml:space="preserve">testusersbin16</t>
   </si>
   <si>
     <t xml:space="preserve">ED337V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_not_able_to_login_for_invalid_credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhjsdgfjsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Login Credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_logout</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
@@ -912,13 +924,13 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.32"/>
@@ -1046,178 +1058,178 @@
         <v>31</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="AB3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
@@ -1229,25 +1241,25 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L8" s="10" t="n">
         <v>43919</v>
@@ -1256,25 +1268,25 @@
         <v>43920</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S8" s="11" t="n">
         <v>1234567891234570</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>1223</v>
@@ -1285,34 +1297,34 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9" s="14" t="n">
         <v>1</v>
@@ -1338,197 +1350,197 @@
         <v>1</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L16" s="10" t="n">
         <v>43919</v>
@@ -1536,25 +1548,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L17" s="10" t="n">
         <v>43919</v>
@@ -1562,25 +1574,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L18" s="10" t="n">
         <v>43919</v>
@@ -1588,25 +1600,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M19" s="10" t="n">
         <v>43920</v>
@@ -1614,25 +1626,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10" t="n">
         <v>43920</v>
@@ -1640,25 +1652,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10" t="n">
         <v>43920</v>
@@ -1666,137 +1678,137 @@
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
@@ -1806,16 +1818,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
@@ -1823,22 +1835,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>123344</v>
@@ -1846,16 +1858,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
@@ -1863,37 +1875,37 @@
     </row>
     <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L31" s="10" t="n">
         <v>43919</v>
@@ -1902,551 +1914,551 @@
         <v>43920</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="127">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -103,7 +103,13 @@
     <t xml:space="preserve">Total Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Error title for invalid login</t>
+    <t xml:space="preserve">Error message for invalid username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message for blank username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message for blank password</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
@@ -121,7 +127,31 @@
     <t xml:space="preserve">shwetabinu</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_not_able_to_login_for_invalid_credentials</t>
+    <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failure,Invalid Login Credentials,OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_shown_error_message_when he_logins_without_username_or/and_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a valid username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
   </si>
   <si>
     <t xml:space="preserve">simulator</t>
@@ -133,25 +163,13 @@
     <t xml:space="preserve">iPhone SE</t>
   </si>
   <si>
-    <t xml:space="preserve">ABC123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhjsdgfjsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Login Credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_logout</t>
-  </si>
-  <si>
     <t xml:space="preserve">testusersbin16</t>
   </si>
   <si>
     <t xml:space="preserve">ED337V</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
+    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
   </si>
   <si>
     <t xml:space="preserve">testusersbin20</t>
@@ -169,7 +187,7 @@
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
+    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
     <t xml:space="preserve">testusersbin2</t>
@@ -181,7 +199,7 @@
     <t xml:space="preserve">Standard,Double,Deluxe,Super Deluxe</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
+    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
   </si>
   <si>
     <r>
@@ -213,7 +231,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
+    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
   </si>
   <si>
     <t xml:space="preserve">testuser</t>
@@ -228,7 +246,7 @@
     <t xml:space="preserve">VISA</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
+    <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
   </si>
   <si>
     <t xml:space="preserve">iPhone_SE</t>
@@ -258,31 +276,31 @@
     <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_view_the_drop_down_list_in_locations</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_list_of_options_in_the_Room_Type_drop_down_menu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sydney,Melbourne,Brisbane,Adelaide, London,New York,Los Angeles,Paris</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
+    <t xml:space="preserve">User_is_able_to_view_the_list_of_options_in_the_Number_of_Rooms_drop_down_menu</t>
   </si>
   <si>
     <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey, Hotel Cornice</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_list_of_options_in_the_Room_Type_drop_down_menu</t>
+    <t xml:space="preserve">User_is_able_to_enter_check_in_date_in_the_check_in_date_field</t>
   </si>
   <si>
     <t xml:space="preserve">Standard,Deluxe,Double,Super Deluxe</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_the_list_of_options_in_the_Number_of_Rooms_drop_down_menu</t>
+    <t xml:space="preserve">User_is_able_to_click_cancel_link_in_the_check_in_date</t>
   </si>
   <si>
     <r>
@@ -458,12 +476,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_enter_check_in_date_in_the_check_in_date_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_cancel_link_in_the_check_in_date</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_click_on_Done_link_in_the_check_in_date_field</t>
   </si>
   <si>
@@ -479,6 +491,12 @@
     <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -517,7 +535,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
+    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
   </si>
   <si>
     <r>
@@ -558,12 +576,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_click_on_Account_icon</t>
   </si>
   <si>
@@ -573,18 +585,15 @@
     <t xml:space="preserve">User_is_able_to_click_on_the_Signup_link</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
+    <t xml:space="preserve">User_is_able_to_exit_the_application_when_he_clicks_on_the_back_button_of_the_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_the_details_of_the_hotel_selected</t>
   </si>
   <si>
     <t xml:space="preserve">user1212312</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_exit_the_application_when_he_clicks_on_the_back_button_of_the_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_the_details_of_the_hotel_selected</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_screen</t>
   </si>
   <si>
@@ -627,28 +636,28 @@
     <t xml:space="preserve">User_is_able_to_scroll_up_down_the_search_results_of_the_search_hotel_screen</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_go_back_to_the_result_of_the_search_hotel_screen_by_clicking_the_back_arrow_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_should_be_able_to_view_his_booking_history</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brisbane</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_go_back_to_the_result_of_the_search_hotel_screen_by_clicking_the_back_arrow_button</t>
+    <t xml:space="preserve">User_is_able_to_select_a_hotel_from_the_list_to_view_its_details</t>
   </si>
   <si>
     <t xml:space="preserve">Adelaide</t>
   </si>
   <si>
-    <t xml:space="preserve">User_should_be_able_to_view_his_booking_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_select_a_hotel_from_the_list_to_view_its_details</t>
+    <t xml:space="preserve">User_is_able_to_navigate_back_to_the_booked_itinerary_screen_by_clicking_the_back_arrow_link_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View_Itinerary_&lt;Cancel_Booking&gt;_User_cancel_itinerary_generated_using_his_username</t>
   </si>
   <si>
     <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_navigate_back_to_the_booked_itinerary_screen_by_clicking_the_back_arrow_link_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View_Itinerary_&lt;Cancel_Booking&gt;_User_cancel_itinerary_generated_using_his_username</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_Booking_confirmation_screen</t>
@@ -816,6 +825,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,10 +847,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -921,10 +930,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB54"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,11 +963,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="27.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,1471 +1050,1529 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
-      <c r="AB3" s="0" t="s">
-        <v>39</v>
+      <c r="AB3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC4" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>43975</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>43977</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+      <c r="W12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="E13" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="0" t="s">
+      <c r="E14" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="E15" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="10" t="n">
+      <c r="E16" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="11" t="n">
         <v>43919</v>
-      </c>
-      <c r="M8" s="10" t="n">
-        <v>43920</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="11" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>43975</v>
-      </c>
-      <c r="M9" s="10" t="n">
-        <v>43977</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="W9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="68.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="10" t="n">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="10" t="n">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="10" t="n">
-        <v>43920</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>62</v>
+      <c r="F20" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="10" t="n">
-        <v>43920</v>
+        <v>69</v>
+      </c>
+      <c r="L20" s="11" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>62</v>
+      <c r="F21" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="10" t="n">
+        <v>69</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>62</v>
+      <c r="F23" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="M23" s="11" t="n">
+        <v>43920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>62</v>
+      <c r="F24" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="M24" s="11" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>62</v>
+      <c r="F25" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>62</v>
+      <c r="F26" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>123344</v>
+      <c r="F29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="10" t="n">
-        <v>43919</v>
-      </c>
-      <c r="M31" s="10" t="n">
-        <v>43920</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>54</v>
+      <c r="F31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>123344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>62</v>
+      <c r="F33" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M33" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>62</v>
+      <c r="F34" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>62</v>
+      <c r="F35" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>62</v>
+      <c r="F36" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>62</v>
+      <c r="F37" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>62</v>
+      <c r="F38" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>62</v>
+      <c r="F39" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>62</v>
+      <c r="F40" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>62</v>
+      <c r="F41" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>62</v>
+      <c r="F42" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>62</v>
+      <c r="F43" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>62</v>
+      <c r="F44" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>62</v>
+      <c r="F45" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>62</v>
+      <c r="F46" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>115</v>
+        <v>69</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>62</v>
+      <c r="F47" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>62</v>
+      <c r="F48" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>62</v>
+      <c r="F49" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>62</v>
+      <c r="F50" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>62</v>
+      <c r="F51" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>62</v>
+      <c r="F52" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>62</v>
+      <c r="F53" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>62</v>
+      <c r="F54" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G10" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G11" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G12" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G13" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G12" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G13" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="126">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -190,16 +190,13 @@
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
+  </si>
+  <si>
     <t xml:space="preserve">testusersbin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard,Double,Deluxe,Super Deluxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
   </si>
   <si>
     <r>
@@ -676,7 +673,7 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0000000000000000"/>
   </numFmts>
   <fonts count="9">
@@ -855,12 +852,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -932,11 +929,11 @@
   </sheetPr>
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -947,7 +944,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.72"/>
@@ -957,15 +953,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="27.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,41 +1239,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
@@ -1296,7 +1288,7 @@
         <v>13.3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>48</v>
@@ -1305,24 +1297,24 @@
         <v>52</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -1346,13 +1338,13 @@
         <v>52</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="11" t="n">
         <v>43919</v>
@@ -1361,25 +1353,25 @@
         <v>43920</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="R11" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>1234567891234570</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>1223</v>
@@ -1390,7 +1382,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -1399,22 +1391,22 @@
         <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>54</v>
@@ -1443,24 +1435,24 @@
         <v>1</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y12" s="5" t="n">
         <v>2</v>
       </c>
       <c r="Z12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AC12" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
@@ -1475,17 +1467,17 @@
         <v>13.3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
@@ -1500,17 +1492,17 @@
         <v>13.3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
@@ -1525,18 +1517,18 @@
         <v>13.3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
@@ -1551,19 +1543,19 @@
         <v>13.3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>44</v>
@@ -1578,18 +1570,18 @@
         <v>13.3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>44</v>
@@ -1604,18 +1596,18 @@
         <v>13.3</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>44</v>
@@ -1630,10 +1622,10 @@
         <v>13.3</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L19" s="11" t="n">
         <v>43919</v>
@@ -1641,7 +1633,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>44</v>
@@ -1656,10 +1648,10 @@
         <v>13.3</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L20" s="11" t="n">
         <v>43919</v>
@@ -1667,7 +1659,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>44</v>
@@ -1682,10 +1674,10 @@
         <v>13.3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="11" t="n">
         <v>43919</v>
@@ -1693,7 +1685,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -1708,10 +1700,10 @@
         <v>13.3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M22" s="11" t="n">
         <v>43920</v>
@@ -1719,7 +1711,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>44</v>
@@ -1734,10 +1726,10 @@
         <v>13.3</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M23" s="11" t="n">
         <v>43920</v>
@@ -1745,7 +1737,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
@@ -1760,10 +1752,10 @@
         <v>13.3</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="11" t="n">
         <v>43920</v>
@@ -1771,59 +1763,59 @@
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
@@ -1832,21 +1824,21 @@
         <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>44</v>
@@ -1855,21 +1847,21 @@
         <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>44</v>
@@ -1878,21 +1870,21 @@
         <v>45</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>44</v>
@@ -1901,7 +1893,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
@@ -1909,22 +1901,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>123344</v>
@@ -1932,7 +1924,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -1941,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
@@ -1949,7 +1941,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -1958,28 +1950,28 @@
         <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>52</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="11" t="n">
         <v>43919</v>
@@ -1988,15 +1980,15 @@
         <v>43920</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -2005,21 +1997,21 @@
         <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>44</v>
@@ -2028,21 +2020,21 @@
         <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>44</v>
@@ -2051,21 +2043,21 @@
         <v>45</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>44</v>
@@ -2074,21 +2066,21 @@
         <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>44</v>
@@ -2097,21 +2089,21 @@
         <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>44</v>
@@ -2120,21 +2112,21 @@
         <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>44</v>
@@ -2143,21 +2135,21 @@
         <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>44</v>
@@ -2166,21 +2158,21 @@
         <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>44</v>
@@ -2189,21 +2181,21 @@
         <v>45</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>44</v>
@@ -2212,21 +2204,21 @@
         <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>44</v>
@@ -2235,21 +2227,21 @@
         <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -2258,21 +2250,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>44</v>
@@ -2281,76 +2273,76 @@
         <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>44</v>
@@ -2359,47 +2351,47 @@
         <v>45</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>44</v>
@@ -2408,21 +2400,21 @@
         <v>45</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>44</v>
@@ -2431,21 +2423,21 @@
         <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>44</v>
@@ -2454,21 +2446,21 @@
         <v>45</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>44</v>
@@ -2477,16 +2469,16 @@
         <v>45</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,16 +2489,16 @@
         <v>45</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,16 +2509,16 @@
         <v>45</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="128">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -154,6 +154,30 @@
     <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
   </si>
   <si>
+    <t xml:space="preserve">testusersbin16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED337V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulator</t>
   </si>
   <si>
@@ -163,34 +187,16 @@
     <t xml:space="preserve">iPhone SE</t>
   </si>
   <si>
-    <t xml:space="preserve">testusersbin16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED337V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
-  </si>
-  <si>
     <t xml:space="preserve">testusersbin20</t>
   </si>
   <si>
     <t xml:space="preserve">testpw123)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey,Hotel Cornice</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_itinerary</t>
@@ -822,12 +828,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -927,13 +933,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1187,604 +1193,625 @@
         <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="K8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="H11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M12" s="10" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>43975</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>43977</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+      <c r="W13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>43919</v>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>43975</v>
-      </c>
-      <c r="M12" s="11" t="n">
-        <v>43977</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
-      <c r="W12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>77</v>
+    <row r="15" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="11" t="n">
-        <v>43919</v>
+        <v>70</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>86</v>
+      <c r="A20" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L20" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L21" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="11" t="n">
-        <v>43920</v>
+        <v>70</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M23" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M24" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>43920</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,134 +1819,137 @@
         <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>123344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,391 +1957,388 @@
         <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>123344</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="11" t="n">
+    </row>
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="10" t="n">
         <v>43919</v>
       </c>
-      <c r="M33" s="11" t="n">
+      <c r="M34" s="10" t="n">
         <v>43920</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>68</v>
+      <c r="N34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,24 +2346,24 @@
         <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2345,48 +2372,48 @@
         <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,177 +2421,203 @@
         <v>123</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G13" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G13" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G57" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="130">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Hotel List</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hotels</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey,Hotel Cornice</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
   </si>
   <si>
@@ -160,15 +166,18 @@
     <t xml:space="preserve">ED337V</t>
   </si>
   <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek,Hotel Creek,Hotel Creek,Hotel Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
   </si>
   <si>
     <t xml:space="preserve">Sydney</t>
   </si>
   <si>
-    <t xml:space="preserve">Hotel Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve">testpw123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey,Hotel Cornice</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
@@ -682,7 +688,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0000000000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -731,6 +737,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -787,7 +798,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -828,6 +839,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -852,7 +867,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,13 +948,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -949,21 +964,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="27.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +1064,7 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
@@ -1057,896 +1073,918 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="AB3" s="9" t="s">
-        <v>38</v>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="AC3" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="AC4" s="0" t="s">
-        <v>40</v>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="AD4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="AC6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="AB6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="11" t="n">
         <v>43919</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="N8" s="11" t="n">
         <v>43920</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>49</v>
+      <c r="K10" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>61</v>
+      <c r="L11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>62</v>
+      <c r="A12" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="11" t="n">
         <v>43919</v>
       </c>
-      <c r="M12" s="10" t="n">
+      <c r="N12" s="11" t="n">
         <v>43920</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="P12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Q12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="R12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T12" s="13" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="U12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <v>1223</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="X12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>67</v>
+      <c r="A13" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="15" t="n">
+      <c r="L13" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="10" t="n">
+      <c r="M13" s="11" t="n">
         <v>43975</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="N13" s="11" t="n">
         <v>43977</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="R13" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="13"/>
-      <c r="W13" s="15" t="n">
+      <c r="U13" s="14"/>
+      <c r="X13" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="X13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Y13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="AA13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC13" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>77</v>
+      <c r="A14" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>69</v>
+      <c r="F14" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>78</v>
+      <c r="A15" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>69</v>
+      <c r="F15" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>79</v>
+      <c r="A16" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>69</v>
+      <c r="F16" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>81</v>
+      <c r="A17" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>69</v>
+      <c r="F17" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>83</v>
+      <c r="A18" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>69</v>
+      <c r="F18" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>85</v>
+      <c r="A19" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>69</v>
+      <c r="F19" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>87</v>
+      <c r="A20" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>69</v>
+      <c r="F20" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="M20" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>69</v>
+      <c r="F21" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="M21" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>69</v>
+      <c r="F22" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="M22" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>69</v>
+      <c r="F23" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="N23" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>69</v>
+      <c r="F24" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="N24" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>69</v>
+      <c r="F25" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="N25" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>69</v>
+      <c r="F26" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>69</v>
+      <c r="F27" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>69</v>
+      <c r="F28" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>69</v>
+      <c r="F29" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>69</v>
+      <c r="F30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
@@ -1954,22 +1992,22 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>123344</v>
@@ -1977,16 +2015,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
@@ -1994,584 +2032,587 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="10" t="n">
+      <c r="L34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="11" t="n">
         <v>43919</v>
       </c>
-      <c r="M34" s="10" t="n">
+      <c r="N34" s="11" t="n">
         <v>43920</v>
       </c>
-      <c r="N34" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="O34" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>69</v>
+      <c r="F35" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>69</v>
+      <c r="F36" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>69</v>
+      <c r="F37" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>69</v>
+      <c r="F38" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>69</v>
+      <c r="F39" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>69</v>
+      <c r="F40" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>69</v>
+      <c r="F41" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>69</v>
+      <c r="F42" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>69</v>
+      <c r="F43" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>69</v>
+      <c r="F44" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>69</v>
+      <c r="F45" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>69</v>
+      <c r="F46" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>69</v>
+      <c r="F47" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>69</v>
+      <c r="F48" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>69</v>
+      <c r="F49" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>69</v>
+      <c r="F50" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>69</v>
+      <c r="F51" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>69</v>
+      <c r="F52" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>69</v>
+      <c r="F53" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>69</v>
+      <c r="F54" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>69</v>
+      <c r="F55" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>69</v>
+      <c r="F56" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>69</v>
+      <c r="F57" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="127">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -154,63 +154,60 @@
     <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey,Hotel Cornice</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_search_hotel_with_location_and_hotelname</t>
   </si>
   <si>
-    <t xml:space="preserve">testusersbin16</t>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek,Hotel Creek,Hotel Creek,Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Hervey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testusersbin2</t>
   </si>
   <si>
     <t xml:space="preserve">ED337V</t>
   </si>
   <si>
-    <t xml:space="preserve">Hotel Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Creek,Hotel Creek,Hotel Creek,Hotel Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testusersbin20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testpw123)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_itinerary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testusersbin2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -265,12 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">Adactrain@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Hervey</t>
   </si>
   <si>
     <t xml:space="preserve">562C514569</t>
@@ -688,7 +679,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0000000000000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -737,11 +728,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -798,7 +784,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,10 +825,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,7 +849,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,11 +932,11 @@
   </sheetPr>
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1207,16 +1189,18 @@
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="8"/>
       <c r="AC6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
@@ -1228,21 +1212,23 @@
         <v>34</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -1267,68 +1253,77 @@
         <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="M8" s="10" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="11" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -1349,59 +1344,59 @@
         <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="O11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -1422,43 +1417,43 @@
         <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="M12" s="10" t="n">
         <v>43919</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="10" t="n">
         <v>43920</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="S12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="T12" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U12" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="T12" s="13" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>1223</v>
@@ -1468,43 +1463,43 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>69</v>
+      <c r="A13" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>71</v>
+      <c r="F13" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="L13" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="10" t="n">
         <v>43975</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="10" t="n">
         <v>43977</v>
       </c>
       <c r="O13" s="4"/>
@@ -1516,475 +1511,475 @@
         <v>33</v>
       </c>
       <c r="S13" s="9"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="X13" s="16" t="n">
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="X13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AA13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AB13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD13" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>71</v>
+      <c r="F14" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>80</v>
+      <c r="A15" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>71</v>
+      <c r="F15" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>81</v>
+      <c r="A16" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>71</v>
+      <c r="F16" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>83</v>
+      <c r="A17" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>71</v>
+      <c r="F17" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="9" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>71</v>
+      <c r="F20" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="M20" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>71</v>
+      <c r="F21" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="M21" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>71</v>
+      <c r="F22" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="M22" s="10" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>71</v>
+      <c r="F23" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="N23" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>71</v>
+      <c r="F24" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="N24" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>71</v>
+      <c r="F25" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="N25" s="10" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>71</v>
+      <c r="F26" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>71</v>
+      <c r="F27" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>71</v>
+      <c r="F28" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>71</v>
+      <c r="F29" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>71</v>
+      <c r="F30" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
@@ -1992,22 +1987,22 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>123344</v>
@@ -2015,16 +2010,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
@@ -2032,587 +2027,587 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>71</v>
+      <c r="F34" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="L34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="M34" s="10" t="n">
         <v>43919</v>
       </c>
-      <c r="N34" s="11" t="n">
+      <c r="N34" s="10" t="n">
         <v>43920</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>71</v>
+      <c r="F35" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>71</v>
+      <c r="F36" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>71</v>
+      <c r="F37" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>71</v>
+      <c r="F38" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>71</v>
+      <c r="F39" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>71</v>
+      <c r="F40" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>71</v>
+      <c r="F41" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>71</v>
+      <c r="F42" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>71</v>
+      <c r="F43" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>71</v>
+      <c r="F44" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>71</v>
+      <c r="F45" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>71</v>
+      <c r="F46" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>71</v>
+      <c r="F47" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>71</v>
+      <c r="F48" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>71</v>
+      <c r="F49" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>71</v>
+      <c r="F50" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>71</v>
+      <c r="F51" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>71</v>
+      <c r="F52" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>71</v>
+      <c r="F53" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>71</v>
+      <c r="F54" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>71</v>
+      <c r="F55" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>71</v>
+      <c r="F56" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>71</v>
+      <c r="F57" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -172,21 +172,53 @@
     <t xml:space="preserve">Hotel Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_select_hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Hervey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 - Two</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Hotel Hervey</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
@@ -206,35 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">ED337V</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> One</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
@@ -825,6 +828,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -842,10 +849,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,13 +933,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1230,7 +1233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1253,36 +1256,36 @@
         <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="10" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N8" s="10" t="n">
-        <v>43920</v>
+      <c r="L8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>44026</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>44027</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -1305,25 +1308,34 @@
       <c r="H9" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>43920</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -1347,33 +1359,42 @@
         <v>44</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>44</v>
@@ -1381,40 +1402,31 @@
       <c r="J11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>44</v>
@@ -1423,323 +1435,338 @@
         <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="10" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N12" s="10" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="X12" s="4" t="n">
+      <c r="K14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="15" t="n">
+      <c r="M14" s="11" t="n">
+        <v>43975</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>43977</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="X14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="10" t="n">
-        <v>43975</v>
-      </c>
-      <c r="N13" s="10" t="n">
-        <v>43977</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
-      <c r="X13" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z13" s="5" t="n">
+      <c r="Y14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AD13" s="0" t="s">
+      <c r="AB14" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="AD14" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>70</v>
+      <c r="F15" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+    <row r="16" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>70</v>
+      <c r="F16" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="9" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="16" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="10" t="n">
-        <v>43919</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>70</v>
+      <c r="F21" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="M21" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1748,24 +1775,24 @@
         <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>70</v>
+      <c r="F22" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="M22" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1774,25 +1801,25 @@
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>70</v>
+      <c r="F23" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="10" t="n">
-        <v>43920</v>
+        <v>72</v>
+      </c>
+      <c r="M23" s="11" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,24 +1827,24 @@
         <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>70</v>
+      <c r="F24" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="N24" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1826,100 +1853,103 @@
         <v>91</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>70</v>
+      <c r="F25" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="N25" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>70</v>
+      <c r="F26" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="N26" s="11" t="n">
+        <v>43920</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" s="9" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,22 +1957,22 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>70</v>
+      <c r="F29" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,22 +1980,22 @@
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>70</v>
+      <c r="F30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,16 +2003,22 @@
         <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,109 +2026,103 @@
         <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>123344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="0" t="n">
+        <v>123344</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="10" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N34" s="10" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>70</v>
+      <c r="F35" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N35" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,22 +2130,22 @@
         <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>70</v>
+      <c r="F36" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,22 +2153,22 @@
         <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>70</v>
+      <c r="F37" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,22 +2176,22 @@
         <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>70</v>
+      <c r="F38" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,22 +2199,22 @@
         <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>70</v>
+      <c r="F39" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,68 +2222,68 @@
         <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>70</v>
+      <c r="F40" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>70</v>
+      <c r="F41" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>70</v>
+      <c r="F42" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,22 +2291,22 @@
         <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>70</v>
+      <c r="F43" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,22 +2314,22 @@
         <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>70</v>
+      <c r="F44" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2307,22 +2337,22 @@
         <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>70</v>
+      <c r="F45" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,22 +2360,22 @@
         <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>70</v>
+      <c r="F46" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,102 +2383,102 @@
         <v>116</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>70</v>
+      <c r="F47" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>70</v>
+      <c r="F48" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>120</v>
-      </c>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,95 +2486,95 @@
         <v>122</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>70</v>
+      <c r="F51" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="4"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>70</v>
+      <c r="F53" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>70</v>
+      <c r="F54" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,108 +2582,131 @@
         <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>70</v>
+      <c r="F55" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>70</v>
+      <c r="F56" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>70</v>
+      <c r="F57" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G14" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G57" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G14" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G15" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G57" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G58" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="131">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">User_is_able_to_logout</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_cancel_a_hotel_booking</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
   </si>
   <si>
@@ -225,61 +228,67 @@
     <t xml:space="preserve">User_is_able_to_view_itinerary</t>
   </si>
   <si>
+    <t xml:space="preserve">testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650MP69010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUD $100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUD $121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_booked_hotel_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing address of test user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
+  </si>
+  <si>
     <t xml:space="preserve">simulator</t>
   </si>
   <si>
     <t xml:space="preserve">iOS</t>
   </si>
   <si>
+    <t xml:space="preserve">iPhone_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adactmobtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adactrain@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562C514569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUD $150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUD $341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_the_drop_down_list_in_locations</t>
+  </si>
+  <si>
     <t xml:space="preserve">iPhone SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testusersbin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED337V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billing address of test user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adactmobtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adactrain@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562C514569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUD $150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUD $341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_the_drop_down_list_in_locations</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
@@ -933,13 +942,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1170,7 +1179,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1192,18 +1201,16 @@
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="X6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="AC6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
@@ -1223,19 +1230,18 @@
       <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>47</v>
+      <c r="H7" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="AC7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
@@ -1256,36 +1262,18 @@
         <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>44026</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>44027</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -1306,36 +1294,36 @@
         <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>43919</v>
+        <v>44026</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>43920</v>
+        <v>44027</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -1356,22 +1344,31 @@
         <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N10" s="11" t="n">
+        <v>43920</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,59 +1394,59 @@
         <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
@@ -1470,353 +1467,434 @@
         <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="L13" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" s="11" t="n">
-        <v>43919</v>
+        <v>44007</v>
       </c>
       <c r="N13" s="11" t="n">
-        <v>43920</v>
+        <v>44008</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="L14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="11" t="n">
+        <v>44007</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>44008</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11" t="n">
         <v>43975</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N16" s="11" t="n">
         <v>43977</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5" t="n">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="R14" s="5" t="n">
+      <c r="R16" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="X14" s="10" t="n">
+      <c r="S16" s="9"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="X16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="5" t="n">
+      <c r="Y16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD14" s="0" t="s">
+      <c r="AA16" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="AB16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="AD16" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="16" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="11" t="n">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="11" t="n">
-        <v>43919</v>
+        <v>74</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>89</v>
+      <c r="A23" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M23" s="11" t="n">
         <v>43919</v>
@@ -1824,241 +1902,253 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="11" t="n">
-        <v>43920</v>
+        <v>74</v>
+      </c>
+      <c r="M24" s="11" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="11" t="n">
-        <v>43920</v>
+        <v>74</v>
+      </c>
+      <c r="M25" s="11" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N26" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="N27" s="11" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="11" t="n">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>123344</v>
+      <c r="F33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,647 +2156,687 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" s="11" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N35" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>53</v>
+      <c r="F35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>123344</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N37" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="B57" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G15" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G16" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G57" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G58" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G16" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G37" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G57" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G58" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G59" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G60" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="135">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Error message for blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert message for booking details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message for invalid credit card number</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
@@ -225,15 +231,27 @@
     <t xml:space="preserve">User_is_able_to_book_a_hotel</t>
   </si>
   <si>
+    <t xml:space="preserve">testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testuser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">billing address of test user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide data for following fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Enter 16 Digits of Credit Card Number !!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_view_itinerary</t>
   </si>
   <si>
-    <t xml:space="preserve">testuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testuser12</t>
-  </si>
-  <si>
     <t xml:space="preserve">650MP69010</t>
   </si>
   <si>
@@ -247,12 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">billing address of test user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISA</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_down_and_up_on_the_search_hotel_screen</t>
@@ -845,16 +857,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -942,13 +954,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH12" activeCellId="0" sqref="AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -974,9 +986,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="27.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.08"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,28 +1084,34 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1099,81 +1119,81 @@
     </row>
     <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="AC3" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="AD4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1181,25 +1201,25 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1210,100 +1230,100 @@
     </row>
     <row r="7" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7" s="8"/>
       <c r="AC7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9" s="10" t="n">
         <v>1</v>
@@ -1315,48 +1335,48 @@
         <v>44027</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M10" s="11" t="n">
         <v>43919</v>
@@ -1365,115 +1385,157 @@
         <v>43920</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>44029</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>44030</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10" t="n">
         <v>1</v>
@@ -1485,60 +1547,60 @@
         <v>44008</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L14" s="10" t="n">
         <v>1</v>
@@ -1550,66 +1612,66 @@
         <v>44008</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>66</v>
+      <c r="A15" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" s="11" t="n">
         <v>43919</v>
@@ -1618,25 +1680,25 @@
         <v>43920</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="T15" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="T15" s="12" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="U15" s="14" t="s">
-        <v>68</v>
+      <c r="U15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>1223</v>
@@ -1646,35 +1708,35 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>69</v>
+      <c r="A16" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L16" s="10" t="n">
         <v>1</v>
@@ -1694,207 +1756,207 @@
         <v>33</v>
       </c>
       <c r="S16" s="9"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
       <c r="X16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Z16" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AD16" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>79</v>
+      <c r="A17" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>81</v>
+      <c r="A18" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>82</v>
+      <c r="A19" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>86</v>
+      <c r="A21" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>88</v>
+      <c r="A22" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>90</v>
+      <c r="A23" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M23" s="11" t="n">
         <v>43919</v>
@@ -1902,25 +1964,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M24" s="11" t="n">
         <v>43919</v>
@@ -1928,25 +1990,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M25" s="11" t="n">
         <v>43919</v>
@@ -1954,25 +2016,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N26" s="11" t="n">
         <v>43920</v>
@@ -1980,25 +2042,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>43920</v>
@@ -2006,25 +2068,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N28" s="11" t="n">
         <v>43920</v>
@@ -2032,137 +2094,137 @@
     </row>
     <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
@@ -2170,22 +2232,22 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>123344</v>
@@ -2193,16 +2255,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
@@ -2210,37 +2272,37 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M37" s="11" t="n">
         <v>43919</v>
@@ -2249,548 +2311,548 @@
         <v>43920</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="136">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">shwetabinu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_send_email</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
@@ -954,13 +957,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH12" activeCellId="0" sqref="AH12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1117,7 +1120,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1133,22 +1136,15 @@
       <c r="E3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
-      <c r="AC3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>34</v>
@@ -1162,20 +1158,22 @@
       <c r="E4" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="AD4" s="0" t="s">
-        <v>43</v>
+      <c r="AC4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>34</v>
@@ -1189,15 +1187,16 @@
       <c r="E5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
+      <c r="AD5" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -1224,11 +1223,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="X6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1250,18 +1246,16 @@
       <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="X7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="AC7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>34</v>
@@ -1281,19 +1275,18 @@
       <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>50</v>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="AC8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -1314,36 +1307,18 @@
         <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>44026</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>44027</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>34</v>
@@ -1364,36 +1339,36 @@
         <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="M10" s="11" t="n">
-        <v>43919</v>
+        <v>44026</v>
       </c>
       <c r="N10" s="11" t="n">
-        <v>43920</v>
+        <v>44027</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -1414,25 +1389,34 @@
         <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>43920</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
@@ -1455,60 +1439,27 @@
         <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="11" t="n">
-        <v>44029</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>44030</v>
+        <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>34</v>
@@ -1529,51 +1480,60 @@
         <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="10" t="n">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="M13" s="11" t="n">
-        <v>44007</v>
+        <v>44032</v>
       </c>
       <c r="N13" s="11" t="n">
-        <v>44008</v>
+        <v>44033</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -1594,13 +1554,13 @@
         <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="10" t="n">
         <v>1</v>
@@ -1612,35 +1572,32 @@
         <v>44008</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1662,327 +1619,369 @@
         <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="L15" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" s="11" t="n">
-        <v>43919</v>
+        <v>44007</v>
       </c>
       <c r="N15" s="11" t="n">
-        <v>43920</v>
+        <v>44008</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T15" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N16" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="12" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="10" t="n">
+      <c r="K17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="11" t="n">
+      <c r="M17" s="11" t="n">
         <v>43975</v>
       </c>
-      <c r="N16" s="11" t="n">
+      <c r="N17" s="11" t="n">
         <v>43977</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5" t="n">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="R16" s="5" t="n">
+      <c r="R17" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="X16" s="10" t="n">
+      <c r="S17" s="9"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="X17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16" s="5" t="n">
+      <c r="Y17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AA16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AD16" s="0" t="s">
+      <c r="AB17" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="AD17" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E18" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="9" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="16" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="11" t="n">
-        <v>43919</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="11" t="n">
         <v>43919</v>
@@ -1993,22 +1992,22 @@
         <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" s="11" t="n">
         <v>43919</v>
@@ -2019,25 +2018,25 @@
         <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="11" t="n">
-        <v>43920</v>
+        <v>79</v>
+      </c>
+      <c r="M26" s="11" t="n">
+        <v>43919</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,22 +2044,22 @@
         <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N27" s="11" t="n">
         <v>43920</v>
@@ -2071,100 +2070,103 @@
         <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N28" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="N29" s="11" t="n">
+        <v>43920</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P30" s="9" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,22 +2174,22 @@
         <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,22 +2197,22 @@
         <v>106</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,16 +2220,22 @@
         <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,109 +2243,103 @@
         <v>108</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>123344</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="0" t="n">
+        <v>123344</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M37" s="11" t="n">
-        <v>43919</v>
-      </c>
-      <c r="N37" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="11" t="n">
+        <v>43919</v>
+      </c>
+      <c r="N38" s="11" t="n">
+        <v>43920</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,22 +2347,22 @@
         <v>113</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,22 +2370,22 @@
         <v>114</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,22 +2393,22 @@
         <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,22 +2416,22 @@
         <v>116</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,68 +2439,68 @@
         <v>117</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,22 +2508,22 @@
         <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,22 +2531,22 @@
         <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,22 +2554,22 @@
         <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,22 +2577,22 @@
         <v>123</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,102 +2600,102 @@
         <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="4"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,95 +2703,95 @@
         <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,108 +2799,131 @@
         <v>134</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G17" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G37" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G57" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G58" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G59" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G60" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G17" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G18" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G38" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G39" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G57" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G58" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G59" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G60" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G61" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="147">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Verification Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">Location</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t xml:space="preserve">Error message for blank username</t>
   </si>
   <si>
+    <t xml:space="preserve">Alert message for invalid search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message for invalid search</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error message for blank password</t>
   </si>
   <si>
@@ -139,6 +151,12 @@
     <t xml:space="preserve">User_is_able_to_send_email</t>
   </si>
   <si>
+    <t xml:space="preserve">shweta.hannab@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An email has been sent to your email address containing Username and Password. Please check your email.</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
   </si>
   <si>
@@ -161,6 +179,18 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_cancel_a_hotel_booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_error_Search_No_Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shwetabinu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide data for following fields - Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a valid location</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_Search_Hotel_with_Location</t>
@@ -250,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">Please Enter 16 Digits of Credit Card Number !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_error_Book_No_Input</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_itinerary</t>
@@ -811,7 +844,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,6 +881,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -858,6 +895,10 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -957,13 +998,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG61"/>
+  <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -972,28 +1013,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="27.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="33" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="22.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="19.08"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,10 +1120,10 @@
       <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
@@ -1093,1837 +1135,2040 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="57.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="AC4" s="9" t="s">
-        <v>42</v>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="AE4" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="AD5" s="0" t="s">
-        <v>44</v>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="AF5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="X7" s="0" t="n">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="Z7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="AC8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="AG8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="AE9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11" t="n">
-        <v>44026</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>44027</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>43919</v>
+        <v>65</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>44026</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>44027</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>43919</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>43920</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="11" t="n">
-        <v>44032</v>
-      </c>
-      <c r="N13" s="11" t="n">
-        <v>44033</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="9" t="s">
+      <c r="M13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11" t="n">
-        <v>44007</v>
-      </c>
-      <c r="N14" s="11" t="n">
-        <v>44008</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="0" t="s">
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="M14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="O14" s="12" t="n">
+        <v>44032</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>44033</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>123</v>
+      </c>
       <c r="Z14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB14" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11" t="n">
-        <v>44007</v>
-      </c>
-      <c r="N15" s="11" t="n">
-        <v>44008</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>73</v>
+      <c r="F15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="AJ15" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="11" t="n">
-        <v>43919</v>
+        <v>63</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="N16" s="11" t="n">
-        <v>43920</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12" t="n">
+        <v>44007</v>
+      </c>
+      <c r="P16" s="12" t="n">
+        <v>44008</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="T16" s="12" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="X16" s="4" t="n">
+      <c r="M17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="10" t="n">
+      <c r="O17" s="12" t="n">
+        <v>44007</v>
+      </c>
+      <c r="P17" s="12" t="n">
+        <v>44008</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="11" t="n">
-        <v>43975</v>
-      </c>
-      <c r="N17" s="11" t="n">
-        <v>43977</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="X17" s="10" t="n">
+      <c r="AA17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z17" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AC17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AD17" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="AD17" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>86</v>
+      <c r="J18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="12" t="n">
+        <v>43919</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <v>43920</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="14" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>78</v>
+      <c r="F19" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>87</v>
+      <c r="J19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12" t="n">
+        <v>43975</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>43977</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="U19" s="10"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Z19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>78</v>
+      <c r="F20" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>78</v>
+      <c r="F21" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>91</v>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>78</v>
+      <c r="F22" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>78</v>
+      <c r="F23" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>78</v>
+      <c r="F24" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="N25" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="O26" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="11" t="n">
+      <c r="E27" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="O27" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" s="11" t="n">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="O28" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" s="11" t="n">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="P29" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" s="11" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="P30" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="11" t="n">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="P31" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>105</v>
+    <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>78</v>
+      <c r="F32" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="Q32" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>78</v>
+      <c r="F33" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="R33" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>107</v>
+      <c r="A34" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>78</v>
+      <c r="F34" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>108</v>
+      <c r="A35" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
+      <c r="F35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>109</v>
+      <c r="A36" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="0" t="n">
+      <c r="F36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>123344</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M38" s="11" t="n">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="12" t="n">
         <v>43919</v>
       </c>
-      <c r="N38" s="11" t="n">
+      <c r="P40" s="12" t="n">
         <v>43920</v>
       </c>
-      <c r="O38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>79</v>
+      <c r="Q40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>115</v>
+      <c r="A41" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>78</v>
+      <c r="F41" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>116</v>
+      <c r="A42" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>78</v>
+      <c r="F42" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>117</v>
+      <c r="A43" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>78</v>
+      <c r="F43" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>118</v>
+      <c r="A44" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>78</v>
+      <c r="F44" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>119</v>
+        <v>90</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>78</v>
+      <c r="F45" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>120</v>
+      <c r="A46" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>78</v>
+      <c r="F46" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>78</v>
+      <c r="F47" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>122</v>
+      <c r="A48" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>78</v>
+      <c r="F48" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>123</v>
+      <c r="A49" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>78</v>
+      <c r="F49" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>124</v>
+      <c r="A50" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>78</v>
+      <c r="F50" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>125</v>
+      <c r="A51" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>78</v>
+      <c r="F51" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>126</v>
+      <c r="A52" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>78</v>
+      <c r="F52" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>128</v>
+      <c r="A53" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>78</v>
+      <c r="F53" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>129</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>130</v>
+      <c r="A54" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>78</v>
+      <c r="F54" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>131</v>
+      <c r="A55" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>78</v>
+      <c r="F55" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I55" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="0" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>133</v>
+      <c r="A56" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>78</v>
+      <c r="F56" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>124</v>
+      <c r="A57" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>78</v>
+      <c r="F57" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>134</v>
+      <c r="A58" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>78</v>
+      <c r="F58" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>78</v>
+      <c r="F59" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>78</v>
+      <c r="F60" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>78</v>
+      <c r="F61" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G18" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G19" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G38" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G39" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G57" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G58" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G59" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G60" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G61" r:id="rId42" display="Adactrain@1"/>
+    <hyperlink ref="G19" r:id="rId1" display="Adactrain@1"/>
+    <hyperlink ref="G20" r:id="rId2" display="Adactrain@1"/>
+    <hyperlink ref="G21" r:id="rId3" display="Adactrain@1"/>
+    <hyperlink ref="G22" r:id="rId4" display="Adactrain@1"/>
+    <hyperlink ref="G23" r:id="rId5" display="Adactrain@1"/>
+    <hyperlink ref="G24" r:id="rId6" display="Adactrain@1"/>
+    <hyperlink ref="G25" r:id="rId7" display="Adactrain@1"/>
+    <hyperlink ref="G26" r:id="rId8" display="Adactrain@1"/>
+    <hyperlink ref="G27" r:id="rId9" display="Adactrain@1"/>
+    <hyperlink ref="G28" r:id="rId10" display="Adactrain@1"/>
+    <hyperlink ref="G29" r:id="rId11" display="Adactrain@1"/>
+    <hyperlink ref="G30" r:id="rId12" display="Adactrain@1"/>
+    <hyperlink ref="G31" r:id="rId13" display="Adactrain@1"/>
+    <hyperlink ref="G32" r:id="rId14" display="Adactrain@1"/>
+    <hyperlink ref="G33" r:id="rId15" display="Adactrain@1"/>
+    <hyperlink ref="G34" r:id="rId16" display="Adactrain@1"/>
+    <hyperlink ref="G35" r:id="rId17" display="Adactrain@1"/>
+    <hyperlink ref="G36" r:id="rId18" display="Adactrain@1"/>
+    <hyperlink ref="G40" r:id="rId19" display="Adactrain@1"/>
+    <hyperlink ref="G41" r:id="rId20" display="Adactrain@1"/>
+    <hyperlink ref="G42" r:id="rId21" display="Adactrain@1"/>
+    <hyperlink ref="G43" r:id="rId22" display="Adactrain@1"/>
+    <hyperlink ref="G44" r:id="rId23" display="Adactrain@1"/>
+    <hyperlink ref="G45" r:id="rId24" display="Adactrain@1"/>
+    <hyperlink ref="G46" r:id="rId25" display="Adactrain@1"/>
+    <hyperlink ref="G47" r:id="rId26" display="Adactrain@1"/>
+    <hyperlink ref="G48" r:id="rId27" display="Adactrain@1"/>
+    <hyperlink ref="G49" r:id="rId28" display="Adactrain@1"/>
+    <hyperlink ref="G50" r:id="rId29" display="Adactrain@1"/>
+    <hyperlink ref="G51" r:id="rId30" display="Adactrain@1"/>
+    <hyperlink ref="G52" r:id="rId31" display="Adactrain@1"/>
+    <hyperlink ref="G53" r:id="rId32" display="Adactrain@1"/>
+    <hyperlink ref="G54" r:id="rId33" display="Adactrain@1"/>
+    <hyperlink ref="G55" r:id="rId34" display="Adactrain@1"/>
+    <hyperlink ref="G56" r:id="rId35" display="Adactrain@1"/>
+    <hyperlink ref="G57" r:id="rId36" display="Adactrain@1"/>
+    <hyperlink ref="G58" r:id="rId37" display="Adactrain@1"/>
+    <hyperlink ref="G59" r:id="rId38" display="Adactrain@1"/>
+    <hyperlink ref="G60" r:id="rId39" display="Adactrain@1"/>
+    <hyperlink ref="G61" r:id="rId40" display="Adactrain@1"/>
+    <hyperlink ref="G62" r:id="rId41" display="Adactrain@1"/>
+    <hyperlink ref="G63" r:id="rId42" display="Adactrain@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="145">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -145,33 +145,36 @@
     <t xml:space="preserve">OnePlus 6</t>
   </si>
   <si>
+    <t xml:space="preserve">shwetabinu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_send_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shweta.hannab@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An email has been sent to your email address containing Username and Password. Please check your email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failure,Invalid Login Credentials,OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_shown_error_message_when he_logins_without_username_or/and_password</t>
+  </si>
+  <si>
     <t xml:space="preserve">shwetabinu</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_send_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shweta.hannab@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An email has been sent to your email address containing Username and Password. Please check your email.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_shown_an_error_message_when_he_enters_incorrect_username_or_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure,Invalid Login Credentials,OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_shown_error_message_when he_logins_without_username_or/and_password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter a valid username</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t xml:space="preserve">User_is_able_to_view_error_Search_No_Input</t>
   </si>
   <si>
-    <t xml:space="preserve">shwetabinu1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please provide data for following fields - Location</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Two</t>
   </si>
   <si>
     <r>
@@ -255,9 +258,6 @@
     <t xml:space="preserve">User_is_able_to_Search_Hotel</t>
   </si>
   <si>
-    <t xml:space="preserve">2 - Two</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_reset_the_search_criteria</t>
   </si>
   <si>
@@ -313,12 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">iPhone_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adactmobtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adactrain@1</t>
   </si>
   <si>
     <t xml:space="preserve">562C514569</t>
@@ -844,7 +838,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,10 +883,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -913,7 +903,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1000,11 +990,11 @@
   </sheetPr>
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF4" activeCellId="0" sqref="AF4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1167,7 +1157,7 @@
       <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="7"/>
@@ -1253,7 +1243,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1261,12 +1251,12 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
       <c r="AF5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -1283,7 +1273,7 @@
       <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="7"/>
@@ -1294,7 +1284,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>38</v>
@@ -1311,7 +1301,7 @@
       <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="7"/>
@@ -1325,7 +1315,7 @@
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -1340,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1376,7 +1366,7 @@
       <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="7"/>
@@ -1409,7 +1399,7 @@
       <c r="F10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="7"/>
@@ -1443,7 +1433,7 @@
       <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="7"/>
@@ -1460,25 +1450,25 @@
       <c r="M11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <v>44026</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <v>44027</v>
+      <c r="N11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>38</v>
@@ -1495,7 +1485,7 @@
       <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="7"/>
@@ -1513,19 +1503,19 @@
         <v>66</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="12" t="n">
-        <v>43919</v>
-      </c>
-      <c r="P12" s="12" t="n">
-        <v>43920</v>
+        <v>67</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1537,7 @@
       <c r="F13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="7"/>
@@ -1562,16 +1552,16 @@
         <v>66</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
@@ -1587,11 +1577,11 @@
       <c r="E14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>54</v>
+      <c r="F14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1605,19 +1595,19 @@
         <v>66</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="12" t="n">
-        <v>44032</v>
-      </c>
-      <c r="P14" s="12" t="n">
-        <v>44033</v>
+        <v>67</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>72</v>
@@ -1628,10 +1618,10 @@
       <c r="U14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="V14" s="14" t="n">
+      <c r="V14" s="13" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="14" t="s">
         <v>75</v>
       </c>
       <c r="Y14" s="0" t="n">
@@ -1647,7 +1637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -1663,11 +1653,11 @@
       <c r="E15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>54</v>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1675,18 +1665,22 @@
         <v>58</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="O15" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>44037</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
       <c r="AJ15" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>79</v>
       </c>
@@ -1705,7 +1699,7 @@
       <c r="F16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="7"/>
@@ -1719,20 +1713,20 @@
       <c r="M16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12" t="n">
-        <v>44007</v>
-      </c>
-      <c r="P16" s="12" t="n">
-        <v>44008</v>
+      <c r="N16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P16" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>72</v>
@@ -1740,6 +1734,9 @@
       <c r="T16" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="Z16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AA16" s="0" t="s">
         <v>80</v>
       </c>
@@ -1753,7 +1750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
@@ -1772,7 +1769,7 @@
       <c r="F17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="7"/>
@@ -1786,20 +1783,20 @@
       <c r="M17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="12" t="n">
-        <v>44007</v>
-      </c>
-      <c r="P17" s="12" t="n">
-        <v>44008</v>
+      <c r="N17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P17" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>72</v>
@@ -1808,7 +1805,7 @@
         <v>73</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0" t="s">
         <v>80</v>
@@ -1823,8 +1820,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+    <row r="18" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1842,7 +1839,7 @@
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="7"/>
@@ -1857,19 +1854,19 @@
         <v>66</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="12" t="n">
-        <v>43919</v>
-      </c>
-      <c r="P18" s="12" t="n">
-        <v>43920</v>
+        <v>68</v>
+      </c>
+      <c r="O18" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P18" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>72</v>
@@ -1880,10 +1877,10 @@
       <c r="U18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="14" t="n">
+      <c r="V18" s="13" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="14" t="s">
         <v>75</v>
       </c>
       <c r="Y18" s="0" t="n">
@@ -1894,7 +1891,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1909,11 +1906,11 @@
       <c r="E19" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>90</v>
+      <c r="F19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1926,14 +1923,14 @@
       <c r="M19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="12" t="n">
-        <v>43975</v>
-      </c>
-      <c r="P19" s="12" t="n">
-        <v>43977</v>
+      <c r="O19" s="11" t="n">
+        <v>44036</v>
+      </c>
+      <c r="P19" s="11" t="n">
+        <v>44037</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1944,48 +1941,48 @@
         <v>33</v>
       </c>
       <c r="U19" s="10"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Z19" s="11" t="n">
+      <c r="V19" s="13"/>
+      <c r="W19" s="14"/>
+      <c r="Z19" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB19" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AC19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="AD19" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AF19" s="0" t="s">
+      <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1994,8 +1991,8 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>97</v>
+      <c r="A21" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>86</v>
@@ -2004,16 +2001,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>90</v>
+      <c r="F21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2022,8 +2019,8 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>98</v>
+      <c r="A22" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>86</v>
@@ -2032,27 +2029,27 @@
         <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>90</v>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>100</v>
+      <c r="J22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>86</v>
@@ -2061,28 +2058,28 @@
         <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>90</v>
+      <c r="F23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>86</v>
@@ -2091,26 +2088,26 @@
         <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>90</v>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="M24" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>104</v>
+      <c r="A25" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>86</v>
@@ -2119,26 +2116,26 @@
         <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="N25" s="18" t="s">
-        <v>105</v>
+      <c r="N25" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>106</v>
+      <c r="A26" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>86</v>
@@ -2147,26 +2144,26 @@
         <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>90</v>
+      <c r="F26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
@@ -2175,26 +2172,26 @@
         <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>90</v>
+      <c r="F27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="O27" s="12" t="n">
+      <c r="O27" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>86</v>
@@ -2203,26 +2200,26 @@
         <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>90</v>
+      <c r="F28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="11" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>86</v>
@@ -2231,26 +2228,26 @@
         <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>90</v>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>86</v>
@@ -2259,26 +2256,26 @@
         <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>90</v>
+      <c r="F30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="P30" s="12" t="n">
+      <c r="P30" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>86</v>
@@ -2287,26 +2284,26 @@
         <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>90</v>
+      <c r="F31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="P31" s="12" t="n">
+      <c r="P31" s="11" t="n">
         <v>43920</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>86</v>
@@ -2320,21 +2317,21 @@
       <c r="E32" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>90</v>
+      <c r="F32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="Q32" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>86</v>
@@ -2348,21 +2345,21 @@
       <c r="E33" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>90</v>
+      <c r="F33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="R33" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>86</v>
@@ -2376,18 +2373,18 @@
       <c r="E34" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>90</v>
+      <c r="F34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>86</v>
@@ -2401,18 +2398,18 @@
       <c r="E35" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>90</v>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>86</v>
@@ -2426,18 +2423,18 @@
       <c r="E36" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>90</v>
+      <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>86</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -2469,7 +2466,7 @@
         <v>13.3</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>123344</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>86</v>
@@ -2492,9 +2489,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>86</v>
@@ -2508,11 +2505,11 @@
       <c r="E40" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>90</v>
+      <c r="F40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -2526,24 +2523,24 @@
         <v>66</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O40" s="12" t="n">
+        <v>68</v>
+      </c>
+      <c r="O40" s="11" t="n">
         <v>43919</v>
       </c>
-      <c r="P40" s="12" t="n">
+      <c r="P40" s="11" t="n">
         <v>43920</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>86</v>
@@ -2557,18 +2554,18 @@
       <c r="E41" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>90</v>
+      <c r="F41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>86</v>
@@ -2582,18 +2579,18 @@
       <c r="E42" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>90</v>
+      <c r="F42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>86</v>
@@ -2607,18 +2604,18 @@
       <c r="E43" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>90</v>
+      <c r="F43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>86</v>
@@ -2632,18 +2629,18 @@
       <c r="E44" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>90</v>
+      <c r="F44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>86</v>
@@ -2657,18 +2654,18 @@
       <c r="E45" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>90</v>
+      <c r="F45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>86</v>
@@ -2682,18 +2679,18 @@
       <c r="E46" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>90</v>
+      <c r="F46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>86</v>
@@ -2707,18 +2704,18 @@
       <c r="E47" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>90</v>
+      <c r="F47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>86</v>
@@ -2732,18 +2729,18 @@
       <c r="E48" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>90</v>
+      <c r="F48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>86</v>
@@ -2757,18 +2754,18 @@
       <c r="E49" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>90</v>
+      <c r="F49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2782,18 +2779,18 @@
       <c r="E50" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>90</v>
+      <c r="F50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>86</v>
@@ -2807,18 +2804,18 @@
       <c r="E51" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>90</v>
+      <c r="F51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>86</v>
@@ -2832,18 +2829,18 @@
       <c r="E52" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>90</v>
+      <c r="F52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>86</v>
@@ -2857,11 +2854,11 @@
       <c r="E53" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>90</v>
+      <c r="F53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -2872,7 +2869,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>86</v>
@@ -2886,22 +2883,22 @@
       <c r="E54" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>90</v>
+      <c r="F54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>86</v>
@@ -2915,21 +2912,21 @@
       <c r="E55" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>90</v>
+      <c r="F55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>86</v>
@@ -2943,18 +2940,18 @@
       <c r="E56" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>90</v>
+      <c r="F56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>86</v>
@@ -2968,22 +2965,22 @@
       <c r="E57" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>90</v>
+      <c r="F57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>86</v>
@@ -2997,18 +2994,18 @@
       <c r="E58" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>90</v>
+      <c r="F58" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>86</v>
@@ -3022,18 +3019,18 @@
       <c r="E59" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>90</v>
+      <c r="F59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>86</v>
@@ -3047,18 +3044,18 @@
       <c r="E60" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>90</v>
+      <c r="F60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>86</v>
@@ -3072,11 +3069,11 @@
       <c r="E61" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>90</v>
+      <c r="F61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -3094,11 +3091,11 @@
       <c r="E62" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>90</v>
+      <c r="F62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -3116,60 +3113,16 @@
       <c r="E63" s="5" t="n">
         <v>13.3</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>90</v>
+      <c r="F63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" display="Adactrain@1"/>
-    <hyperlink ref="G20" r:id="rId2" display="Adactrain@1"/>
-    <hyperlink ref="G21" r:id="rId3" display="Adactrain@1"/>
-    <hyperlink ref="G22" r:id="rId4" display="Adactrain@1"/>
-    <hyperlink ref="G23" r:id="rId5" display="Adactrain@1"/>
-    <hyperlink ref="G24" r:id="rId6" display="Adactrain@1"/>
-    <hyperlink ref="G25" r:id="rId7" display="Adactrain@1"/>
-    <hyperlink ref="G26" r:id="rId8" display="Adactrain@1"/>
-    <hyperlink ref="G27" r:id="rId9" display="Adactrain@1"/>
-    <hyperlink ref="G28" r:id="rId10" display="Adactrain@1"/>
-    <hyperlink ref="G29" r:id="rId11" display="Adactrain@1"/>
-    <hyperlink ref="G30" r:id="rId12" display="Adactrain@1"/>
-    <hyperlink ref="G31" r:id="rId13" display="Adactrain@1"/>
-    <hyperlink ref="G32" r:id="rId14" display="Adactrain@1"/>
-    <hyperlink ref="G33" r:id="rId15" display="Adactrain@1"/>
-    <hyperlink ref="G34" r:id="rId16" display="Adactrain@1"/>
-    <hyperlink ref="G35" r:id="rId17" display="Adactrain@1"/>
-    <hyperlink ref="G36" r:id="rId18" display="Adactrain@1"/>
-    <hyperlink ref="G40" r:id="rId19" display="Adactrain@1"/>
-    <hyperlink ref="G41" r:id="rId20" display="Adactrain@1"/>
-    <hyperlink ref="G42" r:id="rId21" display="Adactrain@1"/>
-    <hyperlink ref="G43" r:id="rId22" display="Adactrain@1"/>
-    <hyperlink ref="G44" r:id="rId23" display="Adactrain@1"/>
-    <hyperlink ref="G45" r:id="rId24" display="Adactrain@1"/>
-    <hyperlink ref="G46" r:id="rId25" display="Adactrain@1"/>
-    <hyperlink ref="G47" r:id="rId26" display="Adactrain@1"/>
-    <hyperlink ref="G48" r:id="rId27" display="Adactrain@1"/>
-    <hyperlink ref="G49" r:id="rId28" display="Adactrain@1"/>
-    <hyperlink ref="G50" r:id="rId29" display="Adactrain@1"/>
-    <hyperlink ref="G51" r:id="rId30" display="Adactrain@1"/>
-    <hyperlink ref="G52" r:id="rId31" display="Adactrain@1"/>
-    <hyperlink ref="G53" r:id="rId32" display="Adactrain@1"/>
-    <hyperlink ref="G54" r:id="rId33" display="Adactrain@1"/>
-    <hyperlink ref="G55" r:id="rId34" display="Adactrain@1"/>
-    <hyperlink ref="G56" r:id="rId35" display="Adactrain@1"/>
-    <hyperlink ref="G57" r:id="rId36" display="Adactrain@1"/>
-    <hyperlink ref="G58" r:id="rId37" display="Adactrain@1"/>
-    <hyperlink ref="G59" r:id="rId38" display="Adactrain@1"/>
-    <hyperlink ref="G60" r:id="rId39" display="Adactrain@1"/>
-    <hyperlink ref="G61" r:id="rId40" display="Adactrain@1"/>
-    <hyperlink ref="G62" r:id="rId41" display="Adactrain@1"/>
-    <hyperlink ref="G63" r:id="rId42" display="Adactrain@1"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="146">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_booked_hotel_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0091Y7MMC6</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
@@ -838,7 +841,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,6 +884,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -990,11 +997,11 @@
   </sheetPr>
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1454,10 +1461,10 @@
         <v>67</v>
       </c>
       <c r="O11" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P11" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>68</v>
@@ -1506,10 +1513,10 @@
         <v>67</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P12" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>67</v>
@@ -1554,6 +1561,12 @@
       <c r="N13" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="O13" s="11" t="n">
+        <v>44040</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>44041</v>
+      </c>
       <c r="Q13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1561,7 +1574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
@@ -1577,10 +1590,10 @@
       <c r="E14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="7"/>
@@ -1598,10 +1611,10 @@
         <v>67</v>
       </c>
       <c r="O14" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P14" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>67</v>
@@ -1618,10 +1631,10 @@
       <c r="U14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="14" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="Y14" s="0" t="n">
@@ -1637,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -1653,10 +1666,10 @@
       <c r="E15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="7"/>
@@ -1666,21 +1679,21 @@
       </c>
       <c r="L15" s="4"/>
       <c r="O15" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P15" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
       <c r="AJ15" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>79</v>
       </c>
@@ -1717,10 +1730,10 @@
         <v>68</v>
       </c>
       <c r="O16" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P16" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P16" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>68</v>
@@ -1750,7 +1763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
@@ -1783,14 +1796,14 @@
       <c r="M17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>68</v>
+      <c r="N17" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="O17" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P17" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P17" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>68</v>
@@ -1808,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AB17" s="0" t="n">
         <v>1</v>
@@ -1820,9 +1833,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>84</v>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -1857,10 +1870,10 @@
         <v>68</v>
       </c>
       <c r="O18" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P18" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>68</v>
@@ -1877,10 +1890,10 @@
       <c r="U18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="14" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="W18" s="15" t="s">
         <v>75</v>
       </c>
       <c r="Y18" s="0" t="n">
@@ -1891,17 +1904,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>85</v>
+      <c r="A19" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>13.3</v>
@@ -1923,14 +1936,14 @@
       <c r="M19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="16" t="n">
+      <c r="N19" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="11" t="n">
-        <v>44036</v>
-      </c>
-      <c r="P19" s="11" t="n">
-        <v>44037</v>
+        <v>44040</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>44041</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1941,39 +1954,39 @@
         <v>33</v>
       </c>
       <c r="U19" s="10"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="14"/>
-      <c r="Z19" s="16" t="n">
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Z19" s="17" t="n">
         <v>1</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB19" s="5" t="n">
         <v>2</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>93</v>
+      <c r="A20" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>13.3</v>
@@ -1991,17 +2004,17 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>13.3</v>
@@ -2019,17 +2032,17 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>96</v>
+      <c r="A22" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>13.3</v>
@@ -2042,23 +2055,23 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22" s="15"/>
+      <c r="J22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>98</v>
+      <c r="A23" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>13.3</v>
@@ -2074,21 +2087,21 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>100</v>
+      <c r="A24" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>13.3</v>
@@ -2102,21 +2115,21 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="M24" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>102</v>
+      <c r="A25" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>13.3</v>
@@ -2129,22 +2142,22 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="N25" s="17" t="s">
-        <v>103</v>
+      <c r="N25" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>104</v>
+      <c r="A26" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>13.3</v>
@@ -2157,22 +2170,22 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="O26" s="11" t="n">
+      <c r="O26" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13.3</v>
@@ -2185,22 +2198,22 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="O27" s="11" t="n">
+      <c r="O27" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>13.3</v>
@@ -2213,22 +2226,22 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="O28" s="11" t="n">
+      <c r="O28" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>13.3</v>
@@ -2241,22 +2254,22 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="P29" s="11" t="n">
+      <c r="P29" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>13.3</v>
@@ -2269,22 +2282,22 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="P30" s="11" t="n">
+      <c r="P30" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>13.3</v>
@@ -2297,22 +2310,22 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="P31" s="11" t="n">
+      <c r="P31" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>13.3</v>
@@ -2326,21 +2339,21 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="Q32" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>13.3</v>
@@ -2354,21 +2367,21 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="R33" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>13.3</v>
@@ -2384,16 +2397,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>13.3</v>
@@ -2409,16 +2422,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>13.3</v>
@@ -2434,16 +2447,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>13.3</v>
@@ -2451,22 +2464,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>13.3</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>123344</v>
@@ -2474,16 +2487,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>13.3</v>
@@ -2491,16 +2504,16 @@
     </row>
     <row r="40" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>13.3</v>
@@ -2525,10 +2538,10 @@
       <c r="N40" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="11" t="n">
+      <c r="O40" s="12" t="n">
         <v>43919</v>
       </c>
-      <c r="P40" s="11" t="n">
+      <c r="P40" s="12" t="n">
         <v>43920</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -2540,16 +2553,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>13.3</v>
@@ -2565,16 +2578,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>13.3</v>
@@ -2590,16 +2603,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>13.3</v>
@@ -2615,16 +2628,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13.3</v>
@@ -2640,16 +2653,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>13.3</v>
@@ -2665,16 +2678,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>13.3</v>
@@ -2690,16 +2703,16 @@
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>13.3</v>
@@ -2715,16 +2728,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>13.3</v>
@@ -2740,16 +2753,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>13.3</v>
@@ -2765,16 +2778,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>13.3</v>
@@ -2790,16 +2803,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13.3</v>
@@ -2815,16 +2828,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>13.3</v>
@@ -2840,16 +2853,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>13.3</v>
@@ -2869,16 +2882,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>13.3</v>
@@ -2892,22 +2905,22 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>13.3</v>
@@ -2921,21 +2934,21 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>13.3</v>
@@ -2951,16 +2964,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>13.3</v>
@@ -2974,22 +2987,22 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>13.3</v>
@@ -3005,16 +3018,16 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>13.3</v>
@@ -3030,16 +3043,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>13.3</v>
@@ -3055,16 +3068,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>13.3</v>
@@ -3080,13 +3093,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="5" t="n">
         <v>13.3</v>
@@ -3102,13 +3115,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>13.3</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -303,13 +303,16 @@
     <t xml:space="preserve">User_is_able_to_view_the_drop_down_list_in_locations</t>
   </si>
   <si>
-    <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu_</t>
+    <t xml:space="preserve">Sydney,Melbourne,Brisbane,Adelaide,London,New York,Los Angeles,Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_list_of_hotels_in_the_drop_down_menu</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_list_of_options_in_the_Room_Type_drop_down_menu</t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney,Melbourne,Brisbane,Adelaide, London,New York,Los Angeles,Paris</t>
+    <t xml:space="preserve">Standard,Deluxe,Double,Super Deluxe</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_the_list_of_options_in_the_Number_of_Rooms_drop_down_menu</t>
@@ -318,15 +321,215 @@
     <t xml:space="preserve">Hotel Creek,Hotel Sunshine,Hotel Hervey, Hotel Cornice</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 - One,2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Two,3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Three,4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Four,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Five,6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Six,7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Seven,8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Eight,9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nine,10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Ten</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_enter_check_in_date_in_the_check_in_date_field</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard,Deluxe,Double,Super Deluxe</t>
-  </si>
-  <si>
     <t xml:space="preserve">User_is_able_to_click_cancel_link_in_the_check_in_date</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_click_on_Done_link_in_the_check_in_date_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_should_be_able_to_enter_date_in_the_Check_out_date_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_should_be_able_to_click_the_Cancel_link_in_the_Check_out_Date_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_should_be_able_to_click_the_Done_link_in_the_Check_out_Date_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -334,7 +537,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 - One,2 </t>
+      <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
@@ -343,259 +546,56 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve"> One,2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Two,3 - Three,4 - Four</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> One,2 –</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Two,3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Three,4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Four,5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Five,6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Six,7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Seven,8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Eight,9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Nine,10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Ten</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_Done_link_in_the_check_in_date_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_should_be_able_to_enter_date_in_the_Check_out_date_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_should_be_able_to_click_the_Cancel_link_in_the_Check_out_Date_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_should_be_able_to_click_the_Done_link_in_the_Check_out_Date_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> One,2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Two,3 - Three,4 - Four</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> One,2 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve"> Two,3 - Three,4 - Four</t>
     </r>
   </si>
@@ -613,9 +613,6 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_view_the_details_of_the_hotel_selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user1212312</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_screen</t>
@@ -760,7 +757,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +768,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5429"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -808,7 +817,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -825,7 +834,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,6 +858,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,7 +882,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,6 +896,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -914,7 +939,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -941,7 +966,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF5429"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -965,17 +990,17 @@
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.65"/>
@@ -1280,28 +1305,28 @@
       <c r="F11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1320,28 +1345,28 @@
       <c r="F12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1360,7 +1385,7 @@
       <c r="F13" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -1369,16 +1394,16 @@
       <c r="J13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1386,10 +1411,10 @@
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6"/>
@@ -1397,7 +1422,7 @@
       <c r="F14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -1406,16 +1431,16 @@
       <c r="J14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O14" s="0" t="s">
@@ -1427,10 +1452,10 @@
       <c r="Q14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="14" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="U14" s="0" t="n">
@@ -1450,10 +1475,10 @@
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="6"/>
@@ -1461,18 +1486,18 @@
       <c r="F15" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="K15" s="10" t="n">
+      <c r="H15" s="10"/>
+      <c r="K15" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
       <c r="AF15" s="9" t="s">
         <v>69</v>
       </c>
@@ -1492,25 +1517,25 @@
       <c r="F16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="10" t="s">
         <v>61</v>
       </c>
       <c r="O16" s="0" t="s">
@@ -1550,25 +1575,25 @@
       <c r="F17" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="10" t="s">
         <v>61</v>
       </c>
       <c r="O17" s="0" t="s">
@@ -1594,7 +1619,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1608,25 +1633,25 @@
       <c r="F18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="10" t="s">
         <v>61</v>
       </c>
       <c r="O18" s="0" t="s">
@@ -1638,21 +1663,21 @@
       <c r="Q18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R18" s="13" t="n">
+      <c r="R18" s="14" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="15" t="s">
         <v>68</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>1223</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1666,45 +1691,45 @@
       <c r="F19" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="16" t="n">
+      <c r="J19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="17" t="n">
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="P19" s="17" t="n">
+      <c r="P19" s="19" t="n">
         <v>33</v>
       </c>
       <c r="Q19" s="9"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="V19" s="16" t="n">
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
+      <c r="V19" s="18" t="n">
         <v>1</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="X19" s="17" t="n">
+      <c r="X19" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="19" t="s">
         <v>82</v>
       </c>
       <c r="AB19" s="0" t="s">
@@ -1712,7 +1737,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1723,13 +1748,15 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>85</v>
+    <row r="21" customFormat="false" ht="42.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>34</v>
@@ -1740,12 +1767,13 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>86</v>
+      <c r="A22" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
@@ -1755,14 +1783,15 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="I22" s="9" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="68.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
@@ -1775,12 +1804,15 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>90</v>
+      <c r="A24" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
@@ -1791,12 +1823,12 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="I24" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>92</v>
+      <c r="A25" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>34</v>
@@ -1806,12 +1838,12 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="J25" s="18" t="s">
-        <v>93</v>
+      <c r="J25" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1822,7 +1854,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1838,7 +1870,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="K27" s="11" t="n">
+      <c r="K27" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1854,7 +1886,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="K28" s="11" t="n">
+      <c r="K28" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
@@ -1870,7 +1902,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1886,7 +1918,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="L30" s="11" t="n">
+      <c r="L30" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1902,7 +1934,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="L31" s="11" t="n">
+      <c r="L31" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
@@ -1986,21 +2018,21 @@
       <c r="A38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>123344</v>
+      <c r="B38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>34</v>
@@ -2013,31 +2045,31 @@
       <c r="F40" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="12" t="n">
         <v>43919</v>
       </c>
-      <c r="L40" s="11" t="n">
+      <c r="L40" s="12" t="n">
         <v>43920</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>34</v>
@@ -2050,7 +2082,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>34</v>
@@ -2063,7 +2095,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>34</v>
@@ -2076,7 +2108,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>34</v>
@@ -2089,7 +2121,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>34</v>
@@ -2102,7 +2134,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>34</v>
@@ -2115,7 +2147,7 @@
     </row>
     <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>34</v>
@@ -2128,7 +2160,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>34</v>
@@ -2141,7 +2173,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>34</v>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>34</v>
@@ -2167,7 +2199,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>34</v>
@@ -2180,7 +2212,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>34</v>
@@ -2193,7 +2225,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>34</v>
@@ -2203,14 +2235,14 @@
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>34</v>
@@ -2220,14 +2252,14 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="4"/>
+      <c r="F54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>34</v>
@@ -2238,12 +2270,12 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>34</v>
@@ -2256,7 +2288,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>34</v>
@@ -2266,14 +2298,14 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="4"/>
+      <c r="F57" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>34</v>
@@ -2286,7 +2318,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>34</v>
@@ -2299,7 +2331,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>34</v>
@@ -2312,7 +2344,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>34</v>
@@ -2334,12 +2366,8 @@
       <c r="E62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -817,7 +817,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,6 +907,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -989,11 +993,11 @@
   </sheetPr>
   <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
@@ -1810,8 +1814,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+    <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1827,7 +1831,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1843,7 +1847,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1859,7 +1863,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="5" t="s">

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="137">
+  <si>
+    <t xml:space="preserve">Test_Case_Status</t>
+  </si>
   <si>
     <t xml:space="preserve">Test_Case_Name</t>
   </si>
@@ -121,6 +124,9 @@
     <t xml:space="preserve">Error message for invalid credit card number</t>
   </si>
   <si>
+    <t xml:space="preserve">PASSED</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_login_into_the_application</t>
   </si>
   <si>
@@ -282,6 +288,9 @@
     <t xml:space="preserve">M3202118P8</t>
   </si>
   <si>
+    <t xml:space="preserve">DUPLICATE</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_shown_an_error_message_when_any_mandatory_field_is_not_entered_and_he_clicks_on_the_search_button</t>
   </si>
   <si>
@@ -500,6 +509,9 @@
     <t xml:space="preserve">User_is_able_to_click_cancel_link_in_the_check_in_date</t>
   </si>
   <si>
+    <t xml:space="preserve">COVERED</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_click_on_Done_link_in_the_check_in_date_field</t>
   </si>
   <si>
@@ -515,12 +527,18 @@
     <t xml:space="preserve">User_is_able_to_view_the_list_in_the_Adults_per_Room_drop_down_menu</t>
   </si>
   <si>
+    <t xml:space="preserve">1 - One,2 - Two,3 - Three,4 - Four</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_view_Children_per_room_list_in_the_children_per_room_drop_down_menu</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_click_on_the_search_button</t>
   </si>
   <si>
+    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -546,7 +564,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> One,2 </t>
+      <t xml:space="preserve"> One,2 –</t>
     </r>
     <r>
       <rPr>
@@ -555,47 +573,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">- Two,3 - Three,4 - Four</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_reset_button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> One,2 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve"> Two,3 - Three,4 - Four</t>
     </r>
   </si>
@@ -604,9 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_click_on_the_Forgot_password_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_is_able_to_click_on_the_Signup_link</t>
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_exit_the_application_when_he_clicks_on_the_back_button_of_the_phone</t>
@@ -757,7 +731,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,12 +748,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5429"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -817,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -880,10 +848,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -970,7 +934,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF5429"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -991,45 +955,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG63"/>
+  <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="29" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="27.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1104,7 +1069,7 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -1125,1255 +1090,1389 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
+      <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="57.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="AA4" s="9" t="s">
-        <v>41</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="AB4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="AB5" s="0" t="s">
-        <v>44</v>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="AC5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="V7" s="0" t="n">
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="W7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="AC8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>49</v>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="AD8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="AA9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="AB9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>44048</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>44049</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="J12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>44041</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>44042</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="J13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="M13" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="K14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="11" t="n">
+      <c r="L14" s="11" t="n">
+        <v>44048</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>44049</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="L15" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="M15" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="15"/>
+      <c r="AG15" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>44041</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>44042</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>44041</v>
-      </c>
-      <c r="L14" s="12" t="n">
-        <v>44042</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="K15" s="11" t="n">
-        <v>44041</v>
-      </c>
-      <c r="L15" s="12" t="n">
-        <v>44042</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="AF15" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="M16" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" s="0" t="n">
+      <c r="K17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>44048</v>
+      </c>
+      <c r="M17" s="12" t="n">
+        <v>44049</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="X16" s="0" t="n">
+      <c r="X17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="Z17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="11" t="n">
-        <v>44041</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <v>44042</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="0" t="s">
+      <c r="AA17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="0" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
+      <c r="A18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>56</v>
+      <c r="F18" s="6"/>
+      <c r="G18" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="11" t="n">
         <v>44041</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="M18" s="12" t="n">
         <v>44042</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="14" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>1223</v>
+      </c>
+      <c r="W18" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" s="14" t="n">
-        <v>1234567891234570</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>1223</v>
-      </c>
-      <c r="V18" s="10" t="n">
+      <c r="K19" s="17" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="18" t="n">
+      <c r="L19" s="11" t="n">
+        <v>44041</v>
+      </c>
+      <c r="M19" s="12" t="n">
+        <v>44042</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="18" t="n">
+        <v>33</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+      <c r="W19" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="11" t="n">
-        <v>44041</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <v>44042</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="19" t="n">
-        <v>22</v>
-      </c>
-      <c r="P19" s="19" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="15"/>
-      <c r="V19" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="19" t="n">
+      <c r="X19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y19" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="Y19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB19" s="0" t="s">
-        <v>83</v>
+      <c r="Z19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
+      <c r="A20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="42.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="H21" s="20" t="s">
-        <v>52</v>
+      <c r="G21" s="6"/>
+      <c r="I21" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="I22" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="68.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
+      <c r="F22" s="6"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="J22" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="65.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="J24" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="I24" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
+      <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="J25" s="22" t="s">
-        <v>91</v>
+      <c r="F25" s="6"/>
+      <c r="K25" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
+      <c r="A26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E26" s="6"/>
-      <c r="K26" s="12" t="n">
+      <c r="F26" s="6"/>
+      <c r="L26" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
+      <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="6"/>
-      <c r="K27" s="12" t="n">
+      <c r="F27" s="6"/>
+      <c r="L27" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
+      <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E28" s="6"/>
-      <c r="K28" s="12" t="n">
+      <c r="F28" s="6"/>
+      <c r="L28" s="12" t="n">
         <v>43919</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
+      <c r="B29" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E29" s="6"/>
-      <c r="L29" s="12" t="n">
+      <c r="F29" s="6"/>
+      <c r="M29" s="12" t="n">
         <v>43920</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
+      <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E30" s="6"/>
-      <c r="L30" s="12" t="n">
+      <c r="F30" s="6"/>
+      <c r="M30" s="12" t="n">
         <v>43920</v>
       </c>
+      <c r="N30" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E31" s="6"/>
-      <c r="L31" s="12" t="n">
+      <c r="F31" s="6"/>
+      <c r="M31" s="12" t="n">
         <v>43920</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>34</v>
+      <c r="O31" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E32" s="6"/>
-      <c r="M32" s="9" t="s">
-        <v>101</v>
+      <c r="F32" s="6"/>
+      <c r="N32" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>34</v>
+      <c r="A33" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E33" s="6"/>
-      <c r="N33" s="9" t="s">
-        <v>103</v>
+      <c r="F33" s="6"/>
+      <c r="O33" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>34</v>
+      <c r="A34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>34</v>
+      <c r="A35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>107</v>
+      <c r="A37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>34</v>
+      <c r="B38" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="12" t="n">
+        <v>43919</v>
+      </c>
+      <c r="M39" s="12" t="n">
+        <v>43920</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="10" t="s">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40" s="12" t="n">
-        <v>43919</v>
-      </c>
-      <c r="L40" s="12" t="n">
-        <v>43920</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>34</v>
+      <c r="B53" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="10"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>34</v>
+      <c r="B54" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>34</v>
+      <c r="B59" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>34</v>
+      <c r="B60" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="F62" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="139">
   <si>
     <t xml:space="preserve">Test_Case_Status</t>
   </si>
@@ -216,7 +216,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -225,7 +224,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -234,7 +232,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> One</t>
     </r>
@@ -335,7 +332,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 - One,2 </t>
     </r>
@@ -344,7 +340,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -353,7 +348,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Two,3 </t>
     </r>
@@ -362,7 +356,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -371,7 +364,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Three,4 </t>
     </r>
@@ -380,7 +372,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -389,7 +380,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Four,5 </t>
     </r>
@@ -398,7 +388,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -407,7 +396,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Five,6 </t>
     </r>
@@ -416,7 +404,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -425,7 +412,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Six,7 </t>
     </r>
@@ -434,7 +420,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -443,7 +428,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Seven,8 </t>
     </r>
@@ -452,7 +436,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -461,7 +444,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Eight,9 </t>
     </r>
@@ -470,7 +452,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -479,7 +460,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Nine,10 </t>
     </r>
@@ -488,7 +468,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -497,7 +476,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Ten</t>
     </r>
@@ -544,7 +522,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -553,7 +530,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -562,7 +538,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> One,2 –</t>
     </r>
@@ -571,7 +546,6 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Two,3 - Three,4 - Four</t>
     </r>
@@ -589,6 +563,9 @@
     <t xml:space="preserve">User_is_able_to_view_the_details_of_the_hotel_selected</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_screen</t>
   </si>
   <si>
@@ -662,6 +639,9 @@
   </si>
   <si>
     <t xml:space="preserve">User_is_able_to_scroll_up_and_down_the_Cancel_booking_screen_to_view_all_details</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -679,7 +659,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -701,34 +680,29 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -751,12 +725,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -785,7 +766,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -794,16 +775,92 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -812,70 +869,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -957,40 +950,40 @@
   </sheetPr>
   <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="30" style="0" width="19.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="11.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="87.19" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="12.9" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="22.39" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="20.52" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="21.02" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="21.85" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="21.13" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="18.65" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="17.32" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="14.72" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="32.02" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="28.64" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="0" width="12.9" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="0" width="17.7" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="0" width="18.39" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="0" width="17.7" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="0" width="24.6" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="0" width="13.52" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="29" customWidth="true" hidden="false" style="0" width="27.77" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="32" customWidth="true" hidden="false" style="0" width="19.89" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="0" width="22.31" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="0" width="19.08" collapsed="true" outlineLevel="0"/>
+    <col min="1022" max="1024" customWidth="true" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,1384 +1088,2920 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="57.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="0" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="AB4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="AC5" s="0" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="W7" s="0" t="n">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="AD8" s="9" t="s">
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" s="0" t="s">
+      <c r="AE8" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="47.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="AB9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="0" t="s">
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="0" t="s">
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>44048</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="13" t="n">
         <v>44049</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="0" t="s">
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="0" t="s">
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="0" t="s">
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>44048</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="13" t="n">
         <v>44049</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="Q14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S14" s="14" t="n">
+      <c r="S14" s="15" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="U14" s="9"/>
+      <c r="V14" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG14" s="9" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH14" s="9" t="s">
+      <c r="AH14" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="0" t="s">
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="L15" s="11" t="n">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="AG15" s="9" t="s">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="AH15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="0" t="s">
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="P16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="0" t="s">
+      <c r="Q16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="X16" s="0" t="s">
+      <c r="X16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="Z16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" s="0" t="s">
+      <c r="AA16" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="0" t="s">
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="12" t="n">
         <v>44048</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="M17" s="13" t="n">
         <v>44049</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="P17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="X17" s="0" t="s">
+      <c r="X17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Z17" s="0" t="s">
+      <c r="Z17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA17" s="0" t="s">
+      <c r="AA17" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="0" t="s">
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="P18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="14" t="n">
+      <c r="S18" s="15" t="n">
         <v>1234567891234570</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="U18" s="9"/>
+      <c r="V18" s="4" t="n">
         <v>1223</v>
       </c>
-      <c r="W18" s="10" t="n">
+      <c r="W18" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="0" t="s">
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="17" t="n">
+      <c r="K19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="12" t="n">
         <v>44041</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="13" t="n">
         <v>44042</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="18" t="n">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Q19" s="18" t="n">
+      <c r="Q19" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="W19" s="17" t="n">
+      <c r="R19" s="11"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="X19" s="0" t="s">
+      <c r="X19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" s="18" t="n">
+      <c r="Y19" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="Z19" s="18" t="s">
+      <c r="Z19" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AA19" s="18" t="s">
+      <c r="AA19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AC19" s="0" t="s">
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="19" t="s">
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="42.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="19" t="s">
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="87.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="J22" s="9" t="s">
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="65.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="1" t="s">
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="J24" s="9" t="s">
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="K25" s="21" t="s">
+      <c r="C25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="L26" s="12" t="n">
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="13" t="n">
         <v>43919</v>
       </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="L27" s="12" t="n">
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="13" t="n">
         <v>43919</v>
       </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="L28" s="12" t="n">
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="13" t="n">
         <v>43919</v>
       </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="M29" s="12" t="n">
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="13" t="n">
         <v>43920</v>
       </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="M30" s="12" t="n">
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="13" t="n">
         <v>43920</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="M31" s="12" t="n">
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="13" t="n">
         <v>43920</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="N32" s="10" t="s">
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="O33" s="9" t="s">
+      <c r="C33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="23" t="s">
         <v>110</v>
       </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B38" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="0" t="s">
+      <c r="B39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="12" t="n">
+      <c r="L39" s="13" t="n">
         <v>43919</v>
       </c>
-      <c r="M39" s="12" t="n">
+      <c r="M39" s="13" t="n">
         <v>43920</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="B40" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="B44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B45" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="B48" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L57" s="12" t="n">
+        <v>44049</v>
+      </c>
+      <c r="M57" s="13" t="n">
+        <v>44050</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S57" s="15" t="n">
+        <v>1234567891234570</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U57" s="9"/>
+      <c r="V57" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="9" t="s">
+      <c r="W57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
